--- a/SQ財報.xlsx
+++ b/SQ財報.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datanny/Desktop/stuff/美股資料/SQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\004134.TWLIFE.000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79852A1-4E9B-E347-BBAB-757AB9100881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="600" windowWidth="26800" windowHeight="15520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="6090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTE" sheetId="8" r:id="rId1"/>
-    <sheet name="INCOME成長性" sheetId="10" r:id="rId2"/>
-    <sheet name="工作表4" sheetId="13" r:id="rId3"/>
+    <sheet name="sample" sheetId="10" r:id="rId2"/>
+    <sheet name="INCOME成長性" sheetId="13" r:id="rId3"/>
     <sheet name="BALANCE SHEET穩定性" sheetId="11" r:id="rId4"/>
     <sheet name="CASH FLOWS" sheetId="12" r:id="rId5"/>
     <sheet name="基本面分析評語" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="286">
   <si>
     <t>ASSETS</t>
   </si>
@@ -1685,14 +1684,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1983,6 +1982,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2046,7 +2053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2215,6 +2222,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2223,11 +2252,11 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2309,13 +2338,13 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2372,10 +2401,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,10 +2458,10 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2501,19 +2530,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2558,7 +2587,7 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2642,7 +2671,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2672,13 +2701,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2696,6 +2725,27 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2711,25 +2761,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3758,8 +3808,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7426899" y="6792969"/>
-          <a:ext cx="0" cy="1261145"/>
+          <a:off x="7426899" y="6658435"/>
+          <a:ext cx="0" cy="1239620"/>
           <a:chOff x="6733216" y="12880664"/>
           <a:chExt cx="1718500" cy="763797"/>
         </a:xfrm>
@@ -3892,8 +3942,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15821186" y="2690678"/>
-          <a:ext cx="2867275" cy="918824"/>
+          <a:off x="15821186" y="2663771"/>
+          <a:ext cx="2915707" cy="886536"/>
           <a:chOff x="6733216" y="12880664"/>
           <a:chExt cx="1718500" cy="763797"/>
         </a:xfrm>
@@ -3994,6 +4044,410 @@
               </a:rPr>
               <a:t>佣金率逐年下降</a:t>
             </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>693961</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>131625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3F3EC0-C4DE-E44C-BAF7-A3A01D4ACB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10654390" y="4381527"/>
+          <a:ext cx="3701145" cy="716705"/>
+          <a:chOff x="6733216" y="12634486"/>
+          <a:chExt cx="2047648" cy="617478"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="直線接點 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83E791A-E0DB-079B-EBE7-E99DE16B245B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7757041" y="12634486"/>
+            <a:ext cx="60224" cy="246167"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="文字方塊 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05D7CDB-876B-F53A-092E-6D7C90F88EB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6733216" y="12880661"/>
+            <a:ext cx="2047648" cy="371303"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>比特幣成本下降才導致毛利率提升</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125185</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>721182</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>79931</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3F3EC0-C4DE-E44C-BAF7-A3A01D4ACB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10085614" y="8681373"/>
+          <a:ext cx="1902282" cy="678629"/>
+          <a:chOff x="6733217" y="12667288"/>
+          <a:chExt cx="1052432" cy="584673"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線接點 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83E791A-E0DB-079B-EBE7-E99DE16B245B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="13" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="7205983" y="12667288"/>
+            <a:ext cx="53449" cy="213361"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="文字方塊 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05D7CDB-876B-F53A-092E-6D7C90F88EB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6733217" y="12880658"/>
+            <a:ext cx="1052432" cy="371303"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>淨收入逐年減少</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>734786</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>186013</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="群組 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3F3EC0-C4DE-E44C-BAF7-A3A01D4ACB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8776607" y="7225364"/>
+          <a:ext cx="5306787" cy="430970"/>
+          <a:chOff x="5844899" y="12880661"/>
+          <a:chExt cx="2935965" cy="371303"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="直線接點 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83E791A-E0DB-079B-EBE7-E99DE16B245B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="18" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5844899" y="13066313"/>
+            <a:ext cx="888317" cy="95719"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="文字方塊 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05D7CDB-876B-F53A-092E-6D7C90F88EB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6733216" y="12880661"/>
+            <a:ext cx="2047648" cy="371303"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln w="22225" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4299,45 +4753,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6976F3-3673-D44B-8960-E3BE2B8F6124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20">
+    <row r="1" spans="1:16" ht="20.25">
       <c r="A1" s="124" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
+    <row r="2" spans="1:16">
       <c r="B2" s="137" t="s">
         <v>239</v>
       </c>
       <c r="C2" s="136"/>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="163" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="13"/>
       <c r="L2" s="147"/>
       <c r="M2" s="147"/>
     </row>
-    <row r="3" spans="1:16" ht="22">
-      <c r="A3" s="156"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
+    <row r="3" spans="1:16" ht="19.5">
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="122">
         <v>2016</v>
       </c>
@@ -4376,10 +4830,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18">
-      <c r="A4" s="156"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="19">
         <v>197</v>
       </c>
@@ -4421,43 +4875,43 @@
       <c r="P4" s="115"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="22">
-      <c r="A8" s="156"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
+    <row r="8" spans="1:16" ht="19.5">
+      <c r="A8" s="163"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="122">
         <v>2016</v>
       </c>
@@ -4496,10 +4950,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
-      <c r="A9" s="156"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="19">
         <v>6129</v>
       </c>
@@ -4541,43 +4995,43 @@
       <c r="P9" s="115"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="156"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="156"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="156"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="156" t="s">
+      <c r="G12" s="163" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:16" ht="22">
-      <c r="A13" s="156"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
+    <row r="13" spans="1:16" ht="19.5">
+      <c r="A13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="122">
         <v>2016</v>
       </c>
@@ -4616,10 +5070,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
       <c r="E14" s="19">
         <v>354014</v>
       </c>
@@ -4663,19 +5117,19 @@
     <row r="15" spans="1:16" ht="18">
       <c r="E15" s="19"/>
     </row>
-    <row r="17" spans="1:18" ht="32" customHeight="1">
+    <row r="17" spans="1:18" ht="32.1" customHeight="1">
       <c r="A17" s="124" t="s">
         <v>186</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:18" ht="31" customHeight="1">
+    <row r="18" spans="1:18" ht="30.95" customHeight="1">
       <c r="A18" s="126" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="22">
+    <row r="19" spans="1:18" ht="19.5">
       <c r="A19" s="114" t="s">
         <v>156</v>
       </c>
@@ -4692,7 +5146,7 @@
       <c r="F19" s="140"/>
       <c r="G19" s="140"/>
     </row>
-    <row r="20" spans="1:18" ht="18">
+    <row r="20" spans="1:18" ht="18.75">
       <c r="A20" s="123" t="s">
         <v>157</v>
       </c>
@@ -4709,7 +5163,7 @@
       <c r="F20" s="141"/>
       <c r="G20" s="141"/>
     </row>
-    <row r="21" spans="1:18" ht="18">
+    <row r="21" spans="1:18" ht="18.75">
       <c r="A21" s="123" t="s">
         <v>158</v>
       </c>
@@ -4726,7 +5180,7 @@
       <c r="F21" s="141"/>
       <c r="G21" s="141"/>
     </row>
-    <row r="22" spans="1:18" ht="18">
+    <row r="22" spans="1:18" ht="18.75">
       <c r="A22" s="123" t="s">
         <v>162</v>
       </c>
@@ -4743,7 +5197,7 @@
       <c r="F22" s="141"/>
       <c r="G22" s="141"/>
     </row>
-    <row r="23" spans="1:18" ht="18">
+    <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="118" t="s">
         <v>163</v>
       </c>
@@ -4763,7 +5217,7 @@
       <c r="F23" s="142"/>
       <c r="G23" s="142"/>
     </row>
-    <row r="24" spans="1:18" ht="22">
+    <row r="24" spans="1:18" ht="19.5">
       <c r="A24" s="123" t="s">
         <v>159</v>
       </c>
@@ -4780,7 +5234,7 @@
       <c r="F24" s="140"/>
       <c r="G24" s="140"/>
     </row>
-    <row r="25" spans="1:18" ht="18">
+    <row r="25" spans="1:18" ht="18.75">
       <c r="A25" s="123" t="s">
         <v>160</v>
       </c>
@@ -4797,7 +5251,7 @@
       <c r="F25" s="141"/>
       <c r="G25" s="141"/>
     </row>
-    <row r="26" spans="1:18" ht="18">
+    <row r="26" spans="1:18" ht="18.75">
       <c r="A26" s="123" t="s">
         <v>161</v>
       </c>
@@ -4814,7 +5268,7 @@
       <c r="F26" s="141"/>
       <c r="G26" s="141"/>
     </row>
-    <row r="27" spans="1:18" ht="18">
+    <row r="27" spans="1:18" ht="18.75">
       <c r="A27" s="118" t="s">
         <v>163</v>
       </c>
@@ -4834,12 +5288,12 @@
       <c r="F27" s="143"/>
       <c r="G27" s="143"/>
     </row>
-    <row r="30" spans="1:18" ht="32" customHeight="1">
+    <row r="30" spans="1:18" ht="32.1" customHeight="1">
       <c r="A30" s="124" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="22">
+    <row r="31" spans="1:18" ht="19.5">
       <c r="A31" s="114" t="s">
         <v>165</v>
       </c>
@@ -4857,7 +5311,7 @@
       <c r="G31" s="140"/>
       <c r="I31" s="112"/>
     </row>
-    <row r="32" spans="1:18" ht="22">
+    <row r="32" spans="1:18" ht="19.5">
       <c r="A32" s="114" t="s">
         <v>22</v>
       </c>
@@ -4875,7 +5329,7 @@
       <c r="G32" s="141"/>
       <c r="R32" s="112"/>
     </row>
-    <row r="33" spans="1:18" ht="18">
+    <row r="33" spans="1:18" ht="18.75">
       <c r="A33" s="114" t="s">
         <v>169</v>
       </c>
@@ -4886,7 +5340,7 @@
       <c r="F33" s="141"/>
       <c r="G33" s="141"/>
     </row>
-    <row r="34" spans="1:18" ht="22">
+    <row r="34" spans="1:18" ht="19.5">
       <c r="A34" s="114" t="s">
         <v>170</v>
       </c>
@@ -4904,7 +5358,7 @@
       <c r="G34" s="141"/>
       <c r="O34" s="112"/>
     </row>
-    <row r="35" spans="1:18" ht="22">
+    <row r="35" spans="1:18" ht="19.5">
       <c r="A35" s="114" t="s">
         <v>172</v>
       </c>
@@ -4922,7 +5376,7 @@
       <c r="G35" s="141"/>
       <c r="O35" s="112"/>
     </row>
-    <row r="36" spans="1:18" ht="22">
+    <row r="36" spans="1:18" ht="19.5">
       <c r="A36" s="114" t="s">
         <v>175</v>
       </c>
@@ -4940,7 +5394,7 @@
       <c r="G36" s="141"/>
       <c r="O36" s="112"/>
     </row>
-    <row r="37" spans="1:18" ht="18">
+    <row r="37" spans="1:18" ht="18.75">
       <c r="A37" s="114" t="s">
         <v>23</v>
       </c>
@@ -4951,7 +5405,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="141"/>
     </row>
-    <row r="38" spans="1:18" ht="22">
+    <row r="38" spans="1:18" ht="19.5">
       <c r="A38" s="114" t="s">
         <v>24</v>
       </c>
@@ -4975,7 +5429,7 @@
       <c r="O38" s="111"/>
       <c r="R38" s="112"/>
     </row>
-    <row r="39" spans="1:18" ht="18">
+    <row r="39" spans="1:18" ht="18.75">
       <c r="A39" s="114" t="s">
         <v>26</v>
       </c>
@@ -5000,19 +5454,19 @@
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
     </row>
-    <row r="42" spans="1:18" ht="32" customHeight="1">
+    <row r="42" spans="1:18" ht="32.1" customHeight="1">
       <c r="A42" s="124" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="32" customHeight="1">
+    <row r="43" spans="1:18" ht="32.1" customHeight="1">
       <c r="A43" s="124" t="s">
         <v>181</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
     </row>
-    <row r="44" spans="1:18" ht="32" customHeight="1">
+    <row r="44" spans="1:18" ht="32.1" customHeight="1">
       <c r="A44" s="124" t="s">
         <v>182</v>
       </c>
@@ -5027,21 +5481,21 @@
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
     </row>
-    <row r="47" spans="1:18" ht="32" customHeight="1">
+    <row r="47" spans="1:18" ht="32.1" customHeight="1">
       <c r="A47" s="124" t="s">
         <v>183</v>
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
     </row>
-    <row r="48" spans="1:18" ht="32" customHeight="1">
+    <row r="48" spans="1:18" ht="32.1" customHeight="1">
       <c r="A48" s="126" t="s">
         <v>184</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
     </row>
-    <row r="49" spans="1:14" ht="22">
+    <row r="49" spans="1:14" ht="19.5">
       <c r="A49" s="114" t="s">
         <v>187</v>
       </c>
@@ -5052,7 +5506,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="22">
+    <row r="50" spans="1:14" ht="19.5">
       <c r="A50" s="123" t="s">
         <v>188</v>
       </c>
@@ -5064,7 +5518,7 @@
       </c>
       <c r="N50" s="112"/>
     </row>
-    <row r="51" spans="1:14" ht="22">
+    <row r="51" spans="1:14" ht="19.5">
       <c r="A51" s="123" t="s">
         <v>189</v>
       </c>
@@ -5076,7 +5530,7 @@
       </c>
       <c r="I51" s="112"/>
     </row>
-    <row r="52" spans="1:14" ht="22">
+    <row r="52" spans="1:14" ht="19.5">
       <c r="A52" s="123" t="s">
         <v>190</v>
       </c>
@@ -5088,7 +5542,7 @@
       </c>
       <c r="I52" s="112"/>
     </row>
-    <row r="53" spans="1:14" ht="22">
+    <row r="53" spans="1:14" ht="19.5">
       <c r="A53" s="123" t="s">
         <v>191</v>
       </c>
@@ -5100,7 +5554,7 @@
       </c>
       <c r="I53" s="112"/>
     </row>
-    <row r="54" spans="1:14" ht="22">
+    <row r="54" spans="1:14" ht="19.5">
       <c r="A54" s="123" t="s">
         <v>192</v>
       </c>
@@ -5112,7 +5566,7 @@
       </c>
       <c r="I54" s="112"/>
     </row>
-    <row r="55" spans="1:14" ht="22">
+    <row r="55" spans="1:14" ht="19.5">
       <c r="A55" s="123" t="s">
         <v>193</v>
       </c>
@@ -5124,7 +5578,7 @@
       </c>
       <c r="I55" s="112"/>
     </row>
-    <row r="56" spans="1:14" ht="22">
+    <row r="56" spans="1:14" ht="19.5">
       <c r="A56" s="118" t="s">
         <v>194</v>
       </c>
@@ -5138,7 +5592,7 @@
       </c>
       <c r="I56" s="112"/>
     </row>
-    <row r="57" spans="1:14" ht="22">
+    <row r="57" spans="1:14" ht="19.5">
       <c r="A57" s="114" t="s">
         <v>195</v>
       </c>
@@ -5150,7 +5604,7 @@
       </c>
       <c r="I57" s="112"/>
     </row>
-    <row r="58" spans="1:14" ht="18">
+    <row r="58" spans="1:14" ht="18.75">
       <c r="A58" s="118" t="s">
         <v>196</v>
       </c>
@@ -5166,12 +5620,12 @@
     <row r="59" spans="1:14">
       <c r="A59" s="111"/>
     </row>
-    <row r="60" spans="1:14" ht="22" customHeight="1">
+    <row r="60" spans="1:14" ht="21.95" customHeight="1">
       <c r="A60" s="126" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="22">
+    <row r="61" spans="1:14" ht="19.5">
       <c r="A61" s="114" t="s">
         <v>197</v>
       </c>
@@ -5182,7 +5636,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="22">
+    <row r="62" spans="1:14" ht="19.5">
       <c r="A62" s="123" t="s">
         <v>157</v>
       </c>
@@ -5195,7 +5649,7 @@
       <c r="I62" s="111"/>
       <c r="N62" s="112"/>
     </row>
-    <row r="63" spans="1:14" ht="22">
+    <row r="63" spans="1:14" ht="19.5">
       <c r="A63" s="123" t="s">
         <v>198</v>
       </c>
@@ -5207,7 +5661,7 @@
       </c>
       <c r="I63" s="112"/>
     </row>
-    <row r="64" spans="1:14" ht="22">
+    <row r="64" spans="1:14" ht="19.5">
       <c r="A64" s="118" t="s">
         <v>199</v>
       </c>
@@ -5220,12 +5674,12 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="29" customHeight="1">
+    <row r="66" spans="1:18" ht="29.1" customHeight="1">
       <c r="A66" s="126" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="22">
+    <row r="67" spans="1:18" ht="19.5">
       <c r="A67" s="115"/>
       <c r="B67" s="122">
         <v>2019</v>
@@ -5245,7 +5699,7 @@
       <c r="M67" s="111"/>
       <c r="R67" s="112"/>
     </row>
-    <row r="68" spans="1:18" ht="22">
+    <row r="68" spans="1:18" ht="19.5">
       <c r="A68" s="123" t="s">
         <v>202</v>
       </c>
@@ -5266,7 +5720,7 @@
       <c r="L68" s="112"/>
       <c r="M68" s="112"/>
     </row>
-    <row r="69" spans="1:18" ht="22">
+    <row r="69" spans="1:18" ht="19.5">
       <c r="A69" s="123" t="s">
         <v>205</v>
       </c>
@@ -5287,7 +5741,7 @@
       <c r="L69" s="112"/>
       <c r="M69" s="112"/>
     </row>
-    <row r="70" spans="1:18" ht="22">
+    <row r="70" spans="1:18" ht="19.5">
       <c r="A70" s="123" t="s">
         <v>206</v>
       </c>
@@ -5308,7 +5762,7 @@
       <c r="L70" s="112"/>
       <c r="M70" s="112"/>
     </row>
-    <row r="71" spans="1:18" ht="18">
+    <row r="71" spans="1:18" ht="18.75">
       <c r="A71" s="123" t="s">
         <v>62</v>
       </c>
@@ -5325,7 +5779,7 @@
       <c r="F71" s="141"/>
       <c r="G71" s="141"/>
     </row>
-    <row r="72" spans="1:18" ht="22">
+    <row r="72" spans="1:18" ht="19.5">
       <c r="A72" s="118" t="s">
         <v>209</v>
       </c>
@@ -5363,7 +5817,7 @@
       <c r="M75" s="31"/>
       <c r="N75" s="31"/>
     </row>
-    <row r="76" spans="1:18" ht="22">
+    <row r="76" spans="1:18" ht="19.5">
       <c r="A76" s="114" t="s">
         <v>211</v>
       </c>
@@ -5374,7 +5828,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="22">
+    <row r="77" spans="1:18" ht="19.5">
       <c r="A77" s="123" t="s">
         <v>212</v>
       </c>
@@ -5386,7 +5840,7 @@
       </c>
       <c r="N77" s="112"/>
     </row>
-    <row r="78" spans="1:18" ht="18">
+    <row r="78" spans="1:18" ht="18.75">
       <c r="A78" s="123" t="s">
         <v>213</v>
       </c>
@@ -5397,7 +5851,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18">
+    <row r="79" spans="1:18" ht="18.75">
       <c r="A79" s="123" t="s">
         <v>214</v>
       </c>
@@ -5408,7 +5862,7 @@
         <v>18336</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18">
+    <row r="80" spans="1:18" ht="18.75">
       <c r="A80" s="123" t="s">
         <v>215</v>
       </c>
@@ -5419,7 +5873,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="22">
+    <row r="81" spans="1:14" ht="19.5">
       <c r="A81" s="118" t="s">
         <v>216</v>
       </c>
@@ -5433,14 +5887,14 @@
       </c>
       <c r="N81" s="112"/>
     </row>
-    <row r="82" spans="1:14" ht="22">
+    <row r="82" spans="1:14" ht="19.5">
       <c r="A82" s="114" t="s">
         <v>217</v>
       </c>
       <c r="B82" s="114"/>
       <c r="C82" s="117"/>
     </row>
-    <row r="83" spans="1:14" ht="22">
+    <row r="83" spans="1:14" ht="19.5">
       <c r="A83" s="123" t="s">
         <v>213</v>
       </c>
@@ -5452,7 +5906,7 @@
       </c>
       <c r="N83" s="112"/>
     </row>
-    <row r="84" spans="1:14" ht="18">
+    <row r="84" spans="1:14" ht="18.75">
       <c r="A84" s="123" t="s">
         <v>214</v>
       </c>
@@ -5463,7 +5917,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18">
+    <row r="85" spans="1:14" ht="18.75">
       <c r="A85" s="123" t="s">
         <v>218</v>
       </c>
@@ -5474,7 +5928,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="22">
+    <row r="86" spans="1:14" ht="19.5">
       <c r="A86" s="118" t="s">
         <v>219</v>
       </c>
@@ -5488,14 +5942,14 @@
       </c>
       <c r="N86" s="112"/>
     </row>
-    <row r="87" spans="1:14" ht="22">
+    <row r="87" spans="1:14" ht="19.5">
       <c r="A87" s="114" t="s">
         <v>220</v>
       </c>
       <c r="B87" s="117"/>
       <c r="C87" s="117"/>
     </row>
-    <row r="88" spans="1:14" ht="22">
+    <row r="88" spans="1:14" ht="19.5">
       <c r="A88" s="123" t="s">
         <v>213</v>
       </c>
@@ -5507,7 +5961,7 @@
       </c>
       <c r="N88" s="112"/>
     </row>
-    <row r="89" spans="1:14" ht="18">
+    <row r="89" spans="1:14" ht="18.75">
       <c r="A89" s="123" t="s">
         <v>214</v>
       </c>
@@ -5518,7 +5972,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18">
+    <row r="90" spans="1:14" ht="18.75">
       <c r="A90" s="123" t="s">
         <v>218</v>
       </c>
@@ -5529,7 +5983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18">
+    <row r="91" spans="1:14" ht="18.75">
       <c r="A91" s="123" t="s">
         <v>221</v>
       </c>
@@ -5540,7 +5994,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="22">
+    <row r="92" spans="1:14" ht="19.5">
       <c r="A92" s="118" t="s">
         <v>222</v>
       </c>
@@ -5553,7 +6007,7 @@
         <v>6797</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="17">
+    <row r="94" spans="1:14" ht="17.25">
       <c r="A94" s="125" t="s">
         <v>223</v>
       </c>
@@ -5583,7 +6037,7 @@
       <c r="G96" s="31"/>
       <c r="H96" s="31"/>
     </row>
-    <row r="97" spans="1:8" ht="34" customHeight="1">
+    <row r="97" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A97" s="124" t="s">
         <v>225</v>
       </c>
@@ -5595,7 +6049,7 @@
       <c r="G97" s="31"/>
       <c r="H97" s="31"/>
     </row>
-    <row r="98" spans="1:8" ht="20" customHeight="1">
+    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="127" t="s">
         <v>224</v>
       </c>
@@ -5607,22 +6061,22 @@
       <c r="G98" s="31"/>
       <c r="H98" s="31"/>
     </row>
-    <row r="99" spans="1:8" ht="20">
+    <row r="99" spans="1:8" ht="20.25">
       <c r="A99" s="124" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17">
+    <row r="100" spans="1:8" ht="17.25">
       <c r="A100" s="126" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17">
+    <row r="101" spans="1:8" ht="17.25">
       <c r="A101" s="126" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20">
+    <row r="102" spans="1:8" ht="20.25">
       <c r="A102" s="124" t="s">
         <v>229</v>
       </c>
@@ -5640,7 +6094,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{822E446D-AED3-BF44-AD0F-2FE16C17081A}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5651,12 +6105,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
+              <xm:f>NOTE!K14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FF090EF0-AF46-A54F-BDB6-2C0461F26275}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5672,7 +6126,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{CAA5654B-014F-9040-8422-D29B4DB5332C}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5683,8 +6137,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
+              <xm:f>NOTE!K9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5695,23 +6149,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329D27BF-70EC-4041-B890-AA977F586786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR55"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A7" zoomScale="59" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="97.33203125" customWidth="1"/>
+    <col min="1" max="1" width="97.375" customWidth="1"/>
     <col min="2" max="3" width="11" style="134"/>
     <col min="4" max="8" width="11" style="22"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="26.33203125" style="134" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.375" style="134" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="13" customWidth="1"/>
     <col min="24" max="24" width="19.5" customWidth="1"/>
     <col min="25" max="96" width="11" style="31"/>
@@ -5768,7 +6222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="47" customHeight="1">
+    <row r="2" spans="1:25" ht="47.1" customHeight="1">
       <c r="A2" s="44" t="s">
         <v>75</v>
       </c>
@@ -5821,7 +6275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="23">
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="23.25">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -5891,7 +6345,7 @@
       </c>
       <c r="P4" s="31"/>
     </row>
-    <row r="5" spans="1:25" ht="23">
+    <row r="5" spans="1:25" ht="23.25">
       <c r="A5" s="17" t="s">
         <v>132</v>
       </c>
@@ -5923,7 +6377,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
     </row>
-    <row r="6" spans="1:25" ht="23">
+    <row r="6" spans="1:25" ht="23.25">
       <c r="A6" s="17" t="s">
         <v>133</v>
       </c>
@@ -5955,7 +6409,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
     </row>
-    <row r="7" spans="1:25" ht="25">
+    <row r="7" spans="1:25" ht="25.5">
       <c r="A7" s="17" t="s">
         <v>134</v>
       </c>
@@ -5987,7 +6441,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="1:25" ht="23">
+    <row r="8" spans="1:25" ht="23.25">
       <c r="A8" s="17" t="s">
         <v>135</v>
       </c>
@@ -6019,7 +6473,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
     </row>
-    <row r="9" spans="1:25" ht="23">
+    <row r="9" spans="1:25" ht="23.25">
       <c r="A9" s="17" t="s">
         <v>136</v>
       </c>
@@ -6051,7 +6505,7 @@
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
-    <row r="10" spans="1:25" ht="23">
+    <row r="10" spans="1:25" ht="23.25">
       <c r="A10" s="17" t="s">
         <v>137</v>
       </c>
@@ -6078,7 +6532,7 @@
       <c r="O10" s="28"/>
       <c r="Y10" s="32"/>
     </row>
-    <row r="11" spans="1:25" ht="23">
+    <row r="11" spans="1:25" ht="23.25">
       <c r="A11" s="17" t="s">
         <v>138</v>
       </c>
@@ -6231,7 +6685,7 @@
       <c r="X13" s="32"/>
       <c r="Y13" s="32"/>
     </row>
-    <row r="14" spans="1:25" ht="40" customHeight="1">
+    <row r="14" spans="1:25" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>232</v>
       </c>
@@ -6289,7 +6743,7 @@
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
     </row>
-    <row r="15" spans="1:25" ht="44" customHeight="1">
+    <row r="15" spans="1:25" ht="44.1" customHeight="1">
       <c r="A15" s="44" t="s">
         <v>53</v>
       </c>
@@ -6347,7 +6801,7 @@
       <c r="X15" s="32"/>
       <c r="Y15" s="32"/>
     </row>
-    <row r="16" spans="1:25" ht="37" customHeight="1">
+    <row r="16" spans="1:25" ht="36.950000000000003" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -6448,7 +6902,7 @@
       <c r="X17" s="32"/>
       <c r="Y17" s="32"/>
     </row>
-    <row r="18" spans="1:96" s="1" customFormat="1" ht="31" customHeight="1">
+    <row r="18" spans="1:96" s="1" customFormat="1" ht="30.95" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>47</v>
       </c>
@@ -6477,7 +6931,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="40" customHeight="1">
+    <row r="19" spans="1:96" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="45" t="s">
         <v>241</v>
       </c>
@@ -6609,7 +7063,7 @@
         <v>0.15798010380622837</v>
       </c>
       <c r="C20" s="148">
-        <f t="shared" si="3"/>
+        <f>C13/C2</f>
         <v>0.14628297362110312</v>
       </c>
       <c r="D20" s="148">
@@ -6677,7 +7131,7 @@
         <v>0.16089965397923875</v>
       </c>
       <c r="C21" s="48">
-        <f t="shared" si="5"/>
+        <f>C15/C2</f>
         <v>0.15043349935436268</v>
       </c>
       <c r="D21" s="48">
@@ -6745,7 +7199,7 @@
         <v>0.13278546712802769</v>
       </c>
       <c r="C22" s="48">
-        <f t="shared" si="6"/>
+        <f>C17/C2</f>
         <v>0.1292197011621472</v>
       </c>
       <c r="D22" s="48">
@@ -6934,7 +7388,7 @@
       <c r="X24" s="32"/>
       <c r="Y24" s="32"/>
     </row>
-    <row r="25" spans="1:96" ht="23">
+    <row r="25" spans="1:96" ht="23.25">
       <c r="A25" s="39" t="s">
         <v>23</v>
       </c>
@@ -6962,7 +7416,7 @@
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
     </row>
-    <row r="26" spans="1:96" s="1" customFormat="1" ht="23">
+    <row r="26" spans="1:96" s="1" customFormat="1" ht="23.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -7076,7 +7530,7 @@
       <c r="CQ26" s="31"/>
       <c r="CR26" s="31"/>
     </row>
-    <row r="27" spans="1:96" s="1" customFormat="1" ht="23">
+    <row r="27" spans="1:96" s="1" customFormat="1" ht="23.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -7190,7 +7644,7 @@
       <c r="CQ27" s="31"/>
       <c r="CR27" s="31"/>
     </row>
-    <row r="28" spans="1:96" ht="23">
+    <row r="28" spans="1:96" ht="23.25">
       <c r="A28" s="14" t="s">
         <v>28</v>
       </c>
@@ -7219,7 +7673,7 @@
       <c r="X28" s="32"/>
       <c r="Y28" s="32"/>
     </row>
-    <row r="29" spans="1:96" ht="23">
+    <row r="29" spans="1:96" ht="23.25">
       <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
@@ -7262,7 +7716,7 @@
       <c r="X29" s="32"/>
       <c r="Y29" s="32"/>
     </row>
-    <row r="30" spans="1:96" ht="23">
+    <row r="30" spans="1:96" ht="23.25">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -7305,7 +7759,7 @@
       <c r="X30" s="32"/>
       <c r="Y30" s="32"/>
     </row>
-    <row r="31" spans="1:96" ht="23">
+    <row r="31" spans="1:96" ht="23.25">
       <c r="A31" s="14" t="s">
         <v>22</v>
       </c>
@@ -7348,7 +7802,7 @@
       <c r="X31" s="32"/>
       <c r="Y31" s="32"/>
     </row>
-    <row r="32" spans="1:96" s="1" customFormat="1" ht="23">
+    <row r="32" spans="1:96" s="1" customFormat="1" ht="23.25">
       <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
@@ -7377,7 +7831,7 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="23">
+    <row r="33" spans="1:96" ht="23.25">
       <c r="A33" s="17" t="s">
         <v>32</v>
       </c>
@@ -7420,7 +7874,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="32"/>
     </row>
-    <row r="34" spans="1:96" ht="23">
+    <row r="34" spans="1:96" ht="23.25">
       <c r="A34" s="17" t="s">
         <v>33</v>
       </c>
@@ -7444,7 +7898,7 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:96" ht="23">
+    <row r="35" spans="1:96" ht="23.25">
       <c r="A35" s="17" t="s">
         <v>35</v>
       </c>
@@ -7478,7 +7932,7 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:96" ht="23">
+    <row r="36" spans="1:96" ht="23.25">
       <c r="A36" s="17" t="s">
         <v>36</v>
       </c>
@@ -7504,7 +7958,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="37" spans="1:96" ht="23">
+    <row r="37" spans="1:96" ht="23.25">
       <c r="A37" s="17" t="s">
         <v>37</v>
       </c>
@@ -7530,7 +7984,7 @@
         <v>-98</v>
       </c>
     </row>
-    <row r="38" spans="1:96" ht="23">
+    <row r="38" spans="1:96" ht="23.25">
       <c r="A38" s="17" t="s">
         <v>38</v>
       </c>
@@ -7554,7 +8008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:96" ht="38" customHeight="1">
+    <row r="39" spans="1:96" ht="38.1" customHeight="1">
       <c r="A39" s="25" t="s">
         <v>39</v>
       </c>
@@ -7604,7 +8058,7 @@
         <v>2.1189710610932475</v>
       </c>
     </row>
-    <row r="40" spans="1:96" ht="38" customHeight="1">
+    <row r="40" spans="1:96" ht="38.1" customHeight="1">
       <c r="A40" s="25" t="s">
         <v>40</v>
       </c>
@@ -7655,22 +8109,22 @@
       </c>
     </row>
     <row r="41" spans="1:96" ht="27" customHeight="1"/>
-    <row r="42" spans="1:96" ht="25">
+    <row r="42" spans="1:96" ht="25.5">
       <c r="A42" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:96" ht="25">
+    <row r="43" spans="1:96" ht="25.5">
       <c r="A43" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:96" ht="25">
+    <row r="44" spans="1:96" ht="25.5">
       <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:96" ht="25">
+    <row r="45" spans="1:96" ht="25.5">
       <c r="A45" s="10" t="s">
         <v>56</v>
       </c>
@@ -7683,7 +8137,7 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:96" ht="25">
+    <row r="46" spans="1:96" ht="25.5">
       <c r="A46" s="10" t="s">
         <v>57</v>
       </c>
@@ -7767,7 +8221,7 @@
       <c r="CQ46"/>
       <c r="CR46"/>
     </row>
-    <row r="47" spans="1:96" ht="25">
+    <row r="47" spans="1:96" ht="25.5">
       <c r="A47" s="10" t="s">
         <v>58</v>
       </c>
@@ -8028,7 +8482,211 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{0AB8EAE4-F7CF-2C43-ABB4-B48F189E0867}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>sample!B2:H2</xm:f>
+              <xm:sqref>I2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B15:H15</xm:f>
+              <xm:sqref>I15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B17:H17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B18:H18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B19:H19</xm:f>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B22:H22</xm:f>
+              <xm:sqref>I22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B23:H23</xm:f>
+              <xm:sqref>I23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B24:H24</xm:f>
+              <xm:sqref>I24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B40:H40</xm:f>
+              <xm:sqref>I40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B14:H14</xm:f>
+              <xm:sqref>I14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF92D050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>sample!J2:O2</xm:f>
+              <xm:sqref>P2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J3:O3</xm:f>
+              <xm:sqref>P3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J4:O4</xm:f>
+              <xm:sqref>P4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J5:O5</xm:f>
+              <xm:sqref>P5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J6:O6</xm:f>
+              <xm:sqref>P6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J7:O7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J8:O8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J10:O10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J11:O11</xm:f>
+              <xm:sqref>P11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J13:O13</xm:f>
+              <xm:sqref>P13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J15:O15</xm:f>
+              <xm:sqref>P15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J16:O16</xm:f>
+              <xm:sqref>P16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J17:O17</xm:f>
+              <xm:sqref>P17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J18:O18</xm:f>
+              <xm:sqref>P18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!K19:O19</xm:f>
+              <xm:sqref>P19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J20:O20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J21:O21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J22:O22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J23:O23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J24:O24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J37:O37</xm:f>
+              <xm:sqref>P37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J38:O38</xm:f>
+              <xm:sqref>P38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!J40:O40</xm:f>
+              <xm:sqref>P40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -8039,212 +8697,8 @@
           <x14:colorLow rgb="FF92D050"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!J12:O12</xm:f>
+              <xm:f>sample!J12:O12</xm:f>
               <xm:sqref>P12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{06EC1A30-4BDC-EA46-82BE-1D868F9C5C13}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF92D050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J2:O2</xm:f>
-              <xm:sqref>P2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J3:O3</xm:f>
-              <xm:sqref>P3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J4:O4</xm:f>
-              <xm:sqref>P4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J5:O5</xm:f>
-              <xm:sqref>P5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J6:O6</xm:f>
-              <xm:sqref>P6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J7:O7</xm:f>
-              <xm:sqref>P7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J8:O8</xm:f>
-              <xm:sqref>P8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J10:O10</xm:f>
-              <xm:sqref>P10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J11:O11</xm:f>
-              <xm:sqref>P11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J13:O13</xm:f>
-              <xm:sqref>P13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J15:O15</xm:f>
-              <xm:sqref>P15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J16:O16</xm:f>
-              <xm:sqref>P16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J17:O17</xm:f>
-              <xm:sqref>P17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J18:O18</xm:f>
-              <xm:sqref>P18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!K19:O19</xm:f>
-              <xm:sqref>P19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J20:O20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J21:O21</xm:f>
-              <xm:sqref>P21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J22:O22</xm:f>
-              <xm:sqref>P22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J23:O23</xm:f>
-              <xm:sqref>P23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J24:O24</xm:f>
-              <xm:sqref>P24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J37:O37</xm:f>
-              <xm:sqref>P37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J38:O38</xm:f>
-              <xm:sqref>P38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!J40:O40</xm:f>
-              <xm:sqref>P40</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{7B55E9B8-B18C-114E-9C3F-A5F5CE05BCDC}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B2:H2</xm:f>
-              <xm:sqref>I2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B15:H15</xm:f>
-              <xm:sqref>I15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B17:H17</xm:f>
-              <xm:sqref>I17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B18:H18</xm:f>
-              <xm:sqref>I18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B19:H19</xm:f>
-              <xm:sqref>I19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B22:H22</xm:f>
-              <xm:sqref>I22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B23:H23</xm:f>
-              <xm:sqref>I23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B24:H24</xm:f>
-              <xm:sqref>I24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B25:H25</xm:f>
-              <xm:sqref>I25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B40:H40</xm:f>
-              <xm:sqref>I40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B14:H14</xm:f>
-              <xm:sqref>I14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8255,20 +8709,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC76982-6DE8-9440-AB02-BBD5F11086DD}">
-  <dimension ref="A1:CJ44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="93.5" customWidth="1"/>
     <col min="2" max="3" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="33" customHeight="1">
@@ -8294,7 +8750,7 @@
       <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="168" t="s">
         <v>74</v>
       </c>
       <c r="Q1" s="31"/>
@@ -8370,15 +8826,15 @@
       <c r="CI1" s="31"/>
       <c r="CJ1" s="31"/>
     </row>
-    <row r="2" spans="1:88" s="163" customFormat="1" ht="23">
-      <c r="A2" s="162" t="s">
+    <row r="2" spans="1:88" s="158" customFormat="1" ht="23.25">
+      <c r="A2" s="157" t="s">
         <v>253</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-    </row>
-    <row r="3" spans="1:88" ht="23">
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+    </row>
+    <row r="3" spans="1:88" ht="23.25">
       <c r="A3" s="17" t="s">
         <v>273</v>
       </c>
@@ -8392,7 +8848,7 @@
         <v>4793146</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="25">
+    <row r="4" spans="1:88" ht="25.5">
       <c r="A4" s="17" t="s">
         <v>277</v>
       </c>
@@ -8406,7 +8862,7 @@
         <v>2709731</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="23">
+    <row r="5" spans="1:88" ht="23.25">
       <c r="A5" s="17" t="s">
         <v>274</v>
       </c>
@@ -8420,7 +8876,7 @@
         <v>145679</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="23">
+    <row r="6" spans="1:88" ht="23.25">
       <c r="A6" s="17" t="s">
         <v>275</v>
       </c>
@@ -8434,8 +8890,8 @@
         <v>10012647</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="23">
-      <c r="A7" s="161" t="s">
+    <row r="7" spans="1:88" ht="25.5">
+      <c r="A7" s="156" t="s">
         <v>263</v>
       </c>
       <c r="B7" s="26">
@@ -8447,19 +8903,33 @@
         <v>9497578</v>
       </c>
       <c r="D7" s="26">
-        <f t="shared" ref="C7:D7" si="0">SUM(D3:D6)</f>
+        <f>SUM(D3:D6)</f>
         <v>17661203</v>
       </c>
-    </row>
-    <row r="8" spans="1:88" s="1" customFormat="1" ht="23">
-      <c r="A8" s="162" t="s">
+      <c r="F7" s="28">
+        <f>(C7-B7)/B7</f>
+        <v>1.0149735865068421</v>
+      </c>
+      <c r="G7" s="28">
+        <f>(D7-C7)/C7</f>
+        <v>0.85954808689120532</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:88" s="1" customFormat="1" ht="23.25">
+      <c r="A8" s="157" t="s">
         <v>254</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:88" ht="23">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:88" ht="23.25">
       <c r="A9" s="17" t="s">
         <v>276</v>
       </c>
@@ -8472,8 +8942,10 @@
       <c r="D9" s="19">
         <v>2729442</v>
       </c>
-    </row>
-    <row r="10" spans="1:88" ht="23">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:88" ht="23.25">
       <c r="A10" s="17" t="s">
         <v>278</v>
       </c>
@@ -8486,8 +8958,10 @@
       <c r="D10" s="19">
         <v>495761</v>
       </c>
-    </row>
-    <row r="11" spans="1:88" ht="23">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:88" ht="23.25">
       <c r="A11" s="17" t="s">
         <v>279</v>
       </c>
@@ -8500,8 +8974,10 @@
       <c r="D11" s="19">
         <v>221185</v>
       </c>
-    </row>
-    <row r="12" spans="1:88" ht="23">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:88" ht="23.25">
       <c r="A12" s="17" t="s">
         <v>280</v>
       </c>
@@ -8514,9 +8990,17 @@
       <c r="D12" s="19">
         <v>9794992</v>
       </c>
-    </row>
-    <row r="13" spans="1:88" s="152" customFormat="1" ht="23">
-      <c r="A13" s="161" t="s">
+      <c r="F12" s="28">
+        <f t="shared" ref="F12" si="0">(C12-B12)/B12</f>
+        <v>7.8039957579013022</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" ref="G12" si="1">(D12-C12)/C12</f>
+        <v>1.1890529829474981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:88" s="152" customFormat="1" ht="23.25">
+      <c r="A13" s="156" t="s">
         <v>264</v>
       </c>
       <c r="B13" s="26">
@@ -8524,17 +9008,26 @@
         <v>2823815</v>
       </c>
       <c r="C13" s="26">
-        <f t="shared" ref="C13:D13" si="1">SUM(C9:C12)</f>
+        <f t="shared" ref="C13:D13" si="2">SUM(C9:C12)</f>
         <v>6764169</v>
       </c>
       <c r="D13" s="26">
-        <f t="shared" si="1"/>
+        <f>SUM(D9:D12)</f>
         <v>13241380</v>
       </c>
       <c r="E13"/>
-    </row>
-    <row r="14" spans="1:88" ht="23">
-      <c r="A14" s="161" t="s">
+      <c r="F13" s="28">
+        <f t="shared" ref="F13:F14" si="3">(C13-B13)/B13</f>
+        <v>1.3954009026795311</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" ref="G13:G14" si="4">(D13-C13)/C13</f>
+        <v>0.95757675480905347</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:88" ht="23.25">
+      <c r="A14" s="156" t="s">
         <v>262</v>
       </c>
       <c r="B14" s="26">
@@ -8542,23 +9035,34 @@
         <v>1889685</v>
       </c>
       <c r="C14" s="26">
-        <f t="shared" ref="C14:D14" si="2">C7-C13</f>
+        <f t="shared" ref="C14:D14" si="5">C7-C13</f>
         <v>2733409</v>
       </c>
       <c r="D14" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4419823</v>
       </c>
-    </row>
-    <row r="15" spans="1:88" s="1" customFormat="1" ht="23">
-      <c r="A15" s="162" t="s">
+      <c r="F14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.44648922968642923</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="4"/>
+        <v>0.61696365234767281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:88" s="1" customFormat="1" ht="23.25">
+      <c r="A15" s="157" t="s">
         <v>255</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:88" ht="23">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:88" ht="23.25">
       <c r="A16" s="17" t="s">
         <v>281</v>
       </c>
@@ -8571,8 +9075,10 @@
       <c r="D16" s="19">
         <v>1399079</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="23">
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.25">
       <c r="A17" s="17" t="s">
         <v>282</v>
       </c>
@@ -8585,8 +9091,10 @@
       <c r="D17" s="19">
         <v>1617189</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="25">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5">
       <c r="A18" s="17" t="s">
         <v>283</v>
       </c>
@@ -8599,8 +9107,10 @@
       <c r="D18" s="19">
         <v>983326</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="25">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" ht="25.5">
       <c r="A19" s="17" t="s">
         <v>285</v>
       </c>
@@ -8613,8 +9123,10 @@
       <c r="D19" s="19">
         <v>187991</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="25">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.5">
       <c r="A20" s="17" t="s">
         <v>284</v>
       </c>
@@ -8627,9 +9139,11 @@
       <c r="D20" s="19">
         <v>71126</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="23">
-      <c r="A21" s="161" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.25">
+      <c r="A21" s="156" t="s">
         <v>266</v>
       </c>
       <c r="B21" s="26">
@@ -8637,16 +9151,24 @@
         <v>1863128</v>
       </c>
       <c r="C21" s="26">
-        <f t="shared" ref="C21:D21" si="3">SUM(C16:C20)</f>
+        <f t="shared" ref="C21:D21" si="6">SUM(C16:C20)</f>
         <v>2752224</v>
       </c>
       <c r="D21" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4258711</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="23">
-      <c r="A22" s="161" t="s">
+      <c r="F21" s="28">
+        <f t="shared" ref="F21:F28" si="7">(C21-B21)/B21</f>
+        <v>0.47720607494493134</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" ref="G21:G28" si="8">(D21-C21)/C21</f>
+        <v>0.54737078086667368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="25.5">
+      <c r="A22" s="156" t="s">
         <v>265</v>
       </c>
       <c r="B22" s="26">
@@ -8654,15 +9176,26 @@
         <v>26557</v>
       </c>
       <c r="C22" s="26">
-        <f t="shared" ref="C22:D22" si="4">C14-C21</f>
+        <f t="shared" ref="C22:D22" si="9">C14-C21</f>
         <v>-18815</v>
       </c>
       <c r="D22" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>161112</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="23">
+      <c r="F22" s="172">
+        <f t="shared" si="7"/>
+        <v>-1.7084761079941257</v>
+      </c>
+      <c r="G22" s="172">
+        <f>(D22-C22)/ABS(C22)</f>
+        <v>9.5629550890247135</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="23.25">
       <c r="A23" s="17" t="s">
         <v>270</v>
       </c>
@@ -8675,8 +9208,10 @@
       <c r="D23" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="23">
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.25">
       <c r="A24" s="17" t="s">
         <v>271</v>
       </c>
@@ -8689,8 +9224,10 @@
       <c r="D24" s="19">
         <v>-33124</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="25">
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+    </row>
+    <row r="25" spans="1:9" ht="25.5">
       <c r="A25" s="17" t="s">
         <v>272</v>
       </c>
@@ -8703,9 +9240,11 @@
       <c r="D25" s="19">
         <v>29474</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="23">
-      <c r="A26" s="161" t="s">
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.25">
+      <c r="A26" s="156" t="s">
         <v>267</v>
       </c>
       <c r="B26" s="26">
@@ -8713,15 +9252,23 @@
         <v>378213</v>
       </c>
       <c r="C26" s="26">
-        <f t="shared" ref="C26:D26" si="5">SUM(C22:C25)</f>
+        <f t="shared" ref="C26:D26" si="10">SUM(C22:C25)</f>
         <v>215967</v>
       </c>
       <c r="D26" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>157462</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="23">
+      <c r="F26" s="172">
+        <f t="shared" si="7"/>
+        <v>-0.42898049511783043</v>
+      </c>
+      <c r="G26" s="172">
+        <f t="shared" si="8"/>
+        <v>-0.27089786865585946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="23.25">
       <c r="A27" s="17" t="s">
         <v>256</v>
       </c>
@@ -8734,9 +9281,11 @@
       <c r="D27" s="19">
         <v>1364</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="23">
-      <c r="A28" s="161" t="s">
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+    </row>
+    <row r="28" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A28" s="156" t="s">
         <v>268</v>
       </c>
       <c r="B28" s="26">
@@ -8744,15 +9293,26 @@
         <v>375446</v>
       </c>
       <c r="C28" s="26">
-        <f t="shared" ref="C28:D28" si="6">SUM(C26:C27)</f>
+        <f t="shared" ref="C28:D28" si="11">SUM(C26:C27)</f>
         <v>213105</v>
       </c>
       <c r="D28" s="26">
-        <f t="shared" si="6"/>
+        <f>SUM(D26:D27)</f>
         <v>158826</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="23">
+      <c r="F28" s="172">
+        <f t="shared" si="7"/>
+        <v>-0.43239507146167494</v>
+      </c>
+      <c r="G28" s="172">
+        <f t="shared" si="8"/>
+        <v>-0.2547054269022313</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="23.25">
       <c r="A29" s="17" t="s">
         <v>257</v>
       </c>
@@ -8765,8 +9325,10 @@
       <c r="D29" s="19">
         <v>-7458</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="23">
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.25">
       <c r="A30" s="17" t="s">
         <v>258</v>
       </c>
@@ -8779,58 +9341,83 @@
       <c r="D30" s="19" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="23">
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="166"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="23">
-      <c r="A32" s="162" t="s">
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="23.25">
+      <c r="A32" s="157" t="s">
         <v>269</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="164"/>
-    </row>
-    <row r="33" spans="1:4" ht="23">
+      <c r="D32" s="159"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" ht="23.25">
       <c r="A33" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="B33" s="167">
+      <c r="B33" s="162">
         <v>0.88</v>
       </c>
-      <c r="C33" s="167">
+      <c r="C33" s="162">
         <v>0.48</v>
       </c>
-      <c r="D33" s="167">
+      <c r="D33" s="162">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="23">
+      <c r="F33" s="172">
+        <f t="shared" ref="F33:F34" si="12">(C33-B33)/B33</f>
+        <v>-0.45454545454545459</v>
+      </c>
+      <c r="G33" s="172">
+        <f t="shared" ref="G33:G34" si="13">(D33-C33)/C33</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="23.25">
       <c r="A34" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="167">
+      <c r="B34" s="162">
         <v>0.81</v>
       </c>
-      <c r="C34" s="167">
+      <c r="C34" s="162">
         <v>0.44</v>
       </c>
-      <c r="D34" s="167">
+      <c r="D34" s="162">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="23">
+      <c r="F34" s="172">
+        <f t="shared" si="12"/>
+        <v>-0.45679012345679015</v>
+      </c>
+      <c r="G34" s="172">
+        <f t="shared" si="13"/>
+        <v>-0.24999999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="23.25">
       <c r="A35" s="78" t="s">
         <v>261</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" ht="23">
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+    </row>
+    <row r="36" spans="1:7" ht="23.25">
       <c r="A36" s="17" t="s">
         <v>259</v>
       </c>
@@ -8843,8 +9430,10 @@
       <c r="D36" s="19" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="23">
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+    </row>
+    <row r="37" spans="1:7" ht="23.25">
       <c r="A37" s="17" t="s">
         <v>260</v>
       </c>
@@ -8857,44 +9446,154 @@
       <c r="D37" s="19" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="25">
-      <c r="A39" s="10" t="s">
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+    </row>
+    <row r="38" spans="1:7" ht="25.5">
+      <c r="A38" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+    </row>
+    <row r="39" spans="1:7" ht="25.5">
+      <c r="A39" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="174">
+        <f>B22/B7</f>
+        <v>5.6342420706481386E-3</v>
+      </c>
+      <c r="C39" s="174">
+        <f t="shared" ref="C39:D39" si="14">C22/C7</f>
+        <v>-1.9810313745251685E-3</v>
+      </c>
+      <c r="D39" s="174">
+        <f t="shared" si="14"/>
+        <v>9.1223683913264578E-3</v>
+      </c>
+      <c r="F39" s="172">
+        <f>(C39-B39)/ABS(B39)</f>
+        <v>-1.3516056551502196</v>
+      </c>
+      <c r="G39" s="172">
+        <f>(D39-C39)/ABS(C39)</f>
+        <v>5.6048581100907553</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="25.5">
+      <c r="A40" s="170" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="174">
+        <f>B26/B7</f>
+        <v>8.0240373395565931E-2</v>
+      </c>
+      <c r="C40" s="174">
+        <f t="shared" ref="C40:D40" si="15">C26/C7</f>
+        <v>2.2739165711510873E-2</v>
+      </c>
+      <c r="D40" s="174">
+        <f t="shared" si="15"/>
+        <v>8.9157007028343432E-3</v>
+      </c>
+      <c r="F40" s="172">
+        <f t="shared" ref="F35:F41" si="16">(C40-B40)/B40</f>
+        <v>-0.71661191555761838</v>
+      </c>
+      <c r="G40" s="172">
+        <f t="shared" ref="G35:G41" si="17">(D40-C40)/C40</f>
+        <v>-0.60791434409042122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="25.5">
+      <c r="A41" s="171" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="174">
+        <f>B28/B7</f>
+        <v>7.9653336162087626E-2</v>
+      </c>
+      <c r="C41" s="174">
+        <f t="shared" ref="C41:D41" si="18">C28/C7</f>
+        <v>2.2437825727780282E-2</v>
+      </c>
+      <c r="D41" s="174">
+        <f t="shared" si="18"/>
+        <v>8.9929321349174231E-3</v>
+      </c>
+      <c r="F41" s="172">
+        <f t="shared" si="16"/>
+        <v>-0.71830651660187528</v>
+      </c>
+      <c r="G41" s="172">
+        <f t="shared" si="17"/>
+        <v>-0.5992066145792696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="25.5">
+      <c r="A42" s="170" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="1:7" ht="25.5">
+      <c r="A43" s="170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="23.25">
+      <c r="A44" s="169"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+    </row>
+    <row r="46" spans="1:7" ht="25.5">
+      <c r="A46" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25">
-      <c r="A40" s="10" t="s">
+    <row r="47" spans="1:7" ht="25.5">
+      <c r="A47" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="25">
-      <c r="A41" s="10" t="s">
+    <row r="48" spans="1:7" ht="25.5">
+      <c r="A48" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="25">
-      <c r="A42" s="10" t="s">
+    <row r="49" spans="1:1" ht="25.5">
+      <c r="A49" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="25">
-      <c r="A43" s="10" t="s">
+    <row r="50" spans="1:1" ht="25.5">
+      <c r="A50" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="25">
-      <c r="A44" s="10" t="s">
+    <row r="51" spans="1:1" ht="25.5">
+      <c r="A51" s="10" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{E65E3418-9368-DC40-A55A-27BB528D0720}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -8905,56 +9604,400 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>工作表4!B7:D7</xm:f>
+              <xm:f>INCOME成長性!B41:D41</xm:f>
+              <xm:sqref>E41</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B40:D40</xm:f>
+              <xm:sqref>E40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B39:D39</xm:f>
+              <xm:sqref>E39</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B7:D7</xm:f>
               <xm:sqref>E7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B8:D8</xm:f>
+              <xm:f>INCOME成長性!B8:D8</xm:f>
               <xm:sqref>E8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B13:D13</xm:f>
+              <xm:f>INCOME成長性!B13:D13</xm:f>
               <xm:sqref>E13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B14:D14</xm:f>
+              <xm:f>INCOME成長性!B14:D14</xm:f>
               <xm:sqref>E14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B15:D15</xm:f>
+              <xm:f>INCOME成長性!B15:D15</xm:f>
               <xm:sqref>E15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B21:D21</xm:f>
+              <xm:f>INCOME成長性!B21:D21</xm:f>
               <xm:sqref>E21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B22:D22</xm:f>
+              <xm:f>INCOME成長性!B22:D22</xm:f>
               <xm:sqref>E22</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B26:D26</xm:f>
+              <xm:f>INCOME成長性!B26:D26</xm:f>
               <xm:sqref>E26</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B28:D28</xm:f>
+              <xm:f>INCOME成長性!B28:D28</xm:f>
               <xm:sqref>E28</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B31:D31</xm:f>
+              <xm:f>INCOME成長性!B31:D31</xm:f>
               <xm:sqref>E31</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B32:D32</xm:f>
+              <xm:f>INCOME成長性!B32:D32</xm:f>
               <xm:sqref>E32</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B33:D33</xm:f>
+              <xm:f>INCOME成長性!B33:D33</xm:f>
               <xm:sqref>E33</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>工作表4!B34:D34</xm:f>
+              <xm:f>INCOME成長性!B34:D34</xm:f>
               <xm:sqref>E34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B35:D35</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B38:D38</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B12:D12</xm:f>
+              <xm:sqref>E12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8965,20 +10008,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E60F01-E8E9-E449-B48C-6EBE57C23B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P365"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="75" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="153.5" style="4" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" style="134" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="71" customWidth="1"/>
+    <col min="2" max="6" width="10.875" style="134" customWidth="1"/>
+    <col min="7" max="8" width="10.875" style="71" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1">
@@ -9040,7 +10083,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="84"/>
     </row>
-    <row r="3" spans="1:16" ht="23">
+    <row r="3" spans="1:16" ht="23.25">
       <c r="A3" s="14" t="s">
         <v>80</v>
       </c>
@@ -9052,7 +10095,7 @@
       <c r="G3" s="79"/>
       <c r="H3" s="80"/>
     </row>
-    <row r="4" spans="1:16" ht="23">
+    <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="17" t="s">
         <v>118</v>
       </c>
@@ -9184,7 +10227,7 @@
       <c r="I7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="23">
+    <row r="8" spans="1:16" ht="23.25">
       <c r="A8" s="17" t="s">
         <v>130</v>
       </c>
@@ -9240,7 +10283,7 @@
       <c r="I9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="23">
+    <row r="10" spans="1:16" ht="23.25">
       <c r="A10" s="17" t="s">
         <v>117</v>
       </c>
@@ -9327,7 +10370,7 @@
       </c>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="23">
+    <row r="12" spans="1:16" ht="23.25">
       <c r="A12" s="78" t="s">
         <v>116</v>
       </c>
@@ -9463,7 +10506,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="23">
+    <row r="16" spans="1:16" ht="23.25">
       <c r="A16" s="78" t="s">
         <v>112</v>
       </c>
@@ -9568,7 +10611,7 @@
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
     </row>
-    <row r="19" spans="1:16" ht="23">
+    <row r="19" spans="1:16" ht="23.25">
       <c r="A19" s="14" t="s">
         <v>109</v>
       </c>
@@ -9634,7 +10677,7 @@
       </c>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" ht="23">
+    <row r="21" spans="1:16" ht="23.25">
       <c r="A21" s="17" t="s">
         <v>111</v>
       </c>
@@ -9746,7 +10789,7 @@
       <c r="I24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="23">
+    <row r="25" spans="1:16" ht="23.25">
       <c r="A25" s="17" t="s">
         <v>121</v>
       </c>
@@ -9833,7 +10876,7 @@
       </c>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" ht="23">
+    <row r="27" spans="1:16" ht="23.25">
       <c r="A27" s="14" t="s">
         <v>5</v>
       </c>
@@ -9867,7 +10910,7 @@
       <c r="O27" s="27"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" ht="23">
+    <row r="28" spans="1:16" ht="23.25">
       <c r="A28" s="86" t="s">
         <v>150</v>
       </c>
@@ -9980,7 +11023,7 @@
       <c r="I30" s="8"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" ht="23">
+    <row r="31" spans="1:16" s="1" customFormat="1" ht="23.25">
       <c r="A31" s="15" t="s">
         <v>6</v>
       </c>
@@ -10020,7 +11063,7 @@
       <c r="I32" s="8"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:16" ht="23">
+    <row r="33" spans="1:16" ht="23.25">
       <c r="A33" s="17" t="s">
         <v>124</v>
       </c>
@@ -10096,7 +11139,7 @@
       </c>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16" ht="23">
+    <row r="35" spans="1:16" ht="23.25">
       <c r="A35" s="17" t="s">
         <v>126</v>
       </c>
@@ -10275,7 +11318,7 @@
       <c r="O38" s="27"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:16" ht="23">
+    <row r="39" spans="1:16" ht="23.25">
       <c r="A39" s="78" t="s">
         <v>83</v>
       </c>
@@ -10813,931 +11856,931 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15">
+    <row r="57" spans="1:16" ht="16.5">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:16" ht="15">
+    <row r="58" spans="1:16" ht="16.5">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:16" ht="15">
+    <row r="59" spans="1:16" ht="16.5">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:16" ht="15">
+    <row r="60" spans="1:16" ht="16.5">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:16" ht="15">
+    <row r="61" spans="1:16" ht="16.5">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:16" ht="15">
+    <row r="62" spans="1:16" ht="16.5">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:16" ht="15">
+    <row r="63" spans="1:16" ht="16.5">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:16" ht="15">
+    <row r="64" spans="1:16" ht="16.5">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" ht="15">
+    <row r="65" spans="1:1" ht="16.5">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" ht="15">
+    <row r="66" spans="1:1" ht="16.5">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" ht="15">
+    <row r="67" spans="1:1" ht="16.5">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" ht="15">
+    <row r="68" spans="1:1" ht="16.5">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" ht="15">
+    <row r="69" spans="1:1" ht="16.5">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" ht="15">
+    <row r="70" spans="1:1" ht="16.5">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" ht="15">
+    <row r="71" spans="1:1" ht="16.5">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" ht="15">
+    <row r="72" spans="1:1" ht="16.5">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" ht="15">
+    <row r="73" spans="1:1" ht="16.5">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" ht="15">
+    <row r="74" spans="1:1" ht="16.5">
       <c r="A74"/>
     </row>
     <row r="75" spans="1:1" ht="16.5" customHeight="1">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" ht="15">
+    <row r="76" spans="1:1" ht="16.5">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" ht="15">
+    <row r="77" spans="1:1" ht="16.5">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" ht="15">
+    <row r="78" spans="1:1" ht="16.5">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" ht="15">
+    <row r="79" spans="1:1" ht="16.5">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" ht="15">
+    <row r="80" spans="1:1" ht="16.5">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" ht="15">
+    <row r="81" spans="1:1" ht="16.5">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" ht="15">
+    <row r="82" spans="1:1" ht="16.5">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" ht="15">
+    <row r="83" spans="1:1" ht="16.5">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" ht="15">
+    <row r="84" spans="1:1" ht="16.5">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" ht="15">
+    <row r="85" spans="1:1" ht="16.5">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" ht="15">
+    <row r="86" spans="1:1" ht="16.5">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" ht="15">
+    <row r="87" spans="1:1" ht="16.5">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" ht="15">
+    <row r="88" spans="1:1" ht="16.5">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" ht="15">
+    <row r="89" spans="1:1" ht="16.5">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" ht="15">
+    <row r="90" spans="1:1" ht="16.5">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" ht="15">
+    <row r="91" spans="1:1" ht="16.5">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" ht="15">
+    <row r="92" spans="1:1" ht="16.5">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" ht="15">
+    <row r="93" spans="1:1" ht="16.5">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" ht="15">
+    <row r="94" spans="1:1" ht="16.5">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" ht="15">
+    <row r="95" spans="1:1" ht="16.5">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" ht="15">
+    <row r="96" spans="1:1" ht="16.5">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" ht="15">
+    <row r="97" spans="1:1" ht="16.5">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" ht="15">
+    <row r="98" spans="1:1" ht="16.5">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" ht="15">
+    <row r="99" spans="1:1" ht="16.5">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" ht="15">
+    <row r="100" spans="1:1" ht="16.5">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" ht="15">
+    <row r="101" spans="1:1" ht="16.5">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" ht="15">
+    <row r="102" spans="1:1" ht="16.5">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" ht="15">
+    <row r="103" spans="1:1" ht="16.5">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" ht="15">
+    <row r="104" spans="1:1" ht="16.5">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" ht="15">
+    <row r="105" spans="1:1" ht="16.5">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" ht="15">
+    <row r="106" spans="1:1" ht="16.5">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" ht="15">
+    <row r="107" spans="1:1" ht="16.5">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" ht="15">
+    <row r="108" spans="1:1" ht="16.5">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" ht="15">
+    <row r="109" spans="1:1" ht="16.5">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" ht="15">
+    <row r="110" spans="1:1" ht="16.5">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" ht="15">
+    <row r="111" spans="1:1" ht="16.5">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" ht="15">
+    <row r="112" spans="1:1" ht="16.5">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" ht="15">
+    <row r="113" spans="1:1" ht="16.5">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" ht="15">
+    <row r="114" spans="1:1" ht="16.5">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" ht="15">
+    <row r="115" spans="1:1" ht="16.5">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" ht="15">
+    <row r="116" spans="1:1" ht="16.5">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" ht="15">
+    <row r="117" spans="1:1" ht="16.5">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" ht="15">
+    <row r="118" spans="1:1" ht="16.5">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" ht="15">
+    <row r="119" spans="1:1" ht="16.5">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" ht="15">
+    <row r="120" spans="1:1" ht="16.5">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" ht="15">
+    <row r="121" spans="1:1" ht="16.5">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" ht="15">
+    <row r="122" spans="1:1" ht="16.5">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" ht="15">
+    <row r="123" spans="1:1" ht="16.5">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" ht="15">
+    <row r="124" spans="1:1" ht="16.5">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" ht="15">
+    <row r="125" spans="1:1" ht="16.5">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" ht="15">
+    <row r="126" spans="1:1" ht="16.5">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" ht="15">
+    <row r="127" spans="1:1" ht="16.5">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" ht="15">
+    <row r="128" spans="1:1" ht="16.5">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" ht="15">
+    <row r="129" spans="1:1" ht="16.5">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" ht="15">
+    <row r="130" spans="1:1" ht="16.5">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" ht="15">
+    <row r="131" spans="1:1" ht="16.5">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" ht="15">
+    <row r="132" spans="1:1" ht="16.5">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" ht="15">
+    <row r="133" spans="1:1" ht="16.5">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" ht="15">
+    <row r="134" spans="1:1" ht="16.5">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" ht="15">
+    <row r="135" spans="1:1" ht="16.5">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" ht="15">
+    <row r="136" spans="1:1" ht="16.5">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" ht="15">
+    <row r="137" spans="1:1" ht="16.5">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" ht="15">
+    <row r="138" spans="1:1" ht="16.5">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" ht="15">
+    <row r="139" spans="1:1" ht="16.5">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" ht="15">
+    <row r="140" spans="1:1" ht="16.5">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" ht="15">
+    <row r="141" spans="1:1" ht="16.5">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" ht="15">
+    <row r="142" spans="1:1" ht="16.5">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" ht="15">
+    <row r="143" spans="1:1" ht="16.5">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" ht="15">
+    <row r="144" spans="1:1" ht="16.5">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1" ht="15">
+    <row r="145" spans="1:1" ht="16.5">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" ht="15">
+    <row r="146" spans="1:1" ht="16.5">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1" ht="15">
+    <row r="147" spans="1:1" ht="16.5">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1" ht="15">
+    <row r="148" spans="1:1" ht="16.5">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1" ht="15">
+    <row r="149" spans="1:1" ht="16.5">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1" ht="15">
+    <row r="150" spans="1:1" ht="16.5">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1" ht="15">
+    <row r="151" spans="1:1" ht="16.5">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" ht="15">
+    <row r="152" spans="1:1" ht="16.5">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1" ht="15">
+    <row r="153" spans="1:1" ht="16.5">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1" ht="15">
+    <row r="154" spans="1:1" ht="16.5">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1" ht="15">
+    <row r="155" spans="1:1" ht="16.5">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1" ht="15">
+    <row r="156" spans="1:1" ht="16.5">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1" ht="15">
+    <row r="157" spans="1:1" ht="16.5">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1" ht="15">
+    <row r="158" spans="1:1" ht="16.5">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" ht="15">
+    <row r="159" spans="1:1" ht="16.5">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1" ht="15">
+    <row r="160" spans="1:1" ht="16.5">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1" ht="15">
+    <row r="161" spans="1:1" ht="16.5">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1" ht="15">
+    <row r="162" spans="1:1" ht="16.5">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1" ht="15">
+    <row r="163" spans="1:1" ht="16.5">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1" ht="15">
+    <row r="164" spans="1:1" ht="16.5">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1" ht="15">
+    <row r="165" spans="1:1" ht="16.5">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1" ht="15">
+    <row r="166" spans="1:1" ht="16.5">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1" ht="15">
+    <row r="167" spans="1:1" ht="16.5">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1" ht="15">
+    <row r="168" spans="1:1" ht="16.5">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" ht="15">
+    <row r="169" spans="1:1" ht="16.5">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1" ht="15">
+    <row r="170" spans="1:1" ht="16.5">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1" ht="15">
+    <row r="171" spans="1:1" ht="16.5">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1" ht="15">
+    <row r="172" spans="1:1" ht="16.5">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1" ht="15">
+    <row r="173" spans="1:1" ht="16.5">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1" ht="15">
+    <row r="174" spans="1:1" ht="16.5">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1" ht="15">
+    <row r="175" spans="1:1" ht="16.5">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1" ht="15">
+    <row r="176" spans="1:1" ht="16.5">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1" ht="15">
+    <row r="177" spans="1:1" ht="16.5">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1" ht="15">
+    <row r="178" spans="1:1" ht="16.5">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1" ht="15">
+    <row r="179" spans="1:1" ht="16.5">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1" ht="15">
+    <row r="180" spans="1:1" ht="16.5">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1" ht="15">
+    <row r="181" spans="1:1" ht="16.5">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1" ht="15">
+    <row r="182" spans="1:1" ht="16.5">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1" ht="15">
+    <row r="183" spans="1:1" ht="16.5">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1" ht="15">
+    <row r="184" spans="1:1" ht="16.5">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1" ht="15">
+    <row r="185" spans="1:1" ht="16.5">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1" ht="15">
+    <row r="186" spans="1:1" ht="16.5">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1" ht="15">
+    <row r="187" spans="1:1" ht="16.5">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1" ht="15">
+    <row r="188" spans="1:1" ht="16.5">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1" ht="15">
+    <row r="189" spans="1:1" ht="16.5">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1" ht="15">
+    <row r="190" spans="1:1" ht="16.5">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1" ht="15">
+    <row r="191" spans="1:1" ht="16.5">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1" ht="15">
+    <row r="192" spans="1:1" ht="16.5">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1" ht="15">
+    <row r="193" spans="1:1" ht="16.5">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1" ht="15">
+    <row r="194" spans="1:1" ht="16.5">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1" ht="15">
+    <row r="195" spans="1:1" ht="16.5">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1" ht="15">
+    <row r="196" spans="1:1" ht="16.5">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1" ht="15">
+    <row r="197" spans="1:1" ht="16.5">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1" ht="15">
+    <row r="198" spans="1:1" ht="16.5">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1" ht="15">
+    <row r="199" spans="1:1" ht="16.5">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1" ht="15">
+    <row r="200" spans="1:1" ht="16.5">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1" ht="15">
+    <row r="201" spans="1:1" ht="16.5">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1" ht="15">
+    <row r="202" spans="1:1" ht="16.5">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1" ht="15">
+    <row r="203" spans="1:1" ht="16.5">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1" ht="15">
+    <row r="204" spans="1:1" ht="16.5">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1" ht="15">
+    <row r="205" spans="1:1" ht="16.5">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1" ht="15">
+    <row r="206" spans="1:1" ht="16.5">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1" ht="15">
+    <row r="207" spans="1:1" ht="16.5">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1" ht="15">
+    <row r="208" spans="1:1" ht="16.5">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1" ht="15">
+    <row r="209" spans="1:1" ht="16.5">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1" ht="15">
+    <row r="210" spans="1:1" ht="16.5">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1" ht="15">
+    <row r="211" spans="1:1" ht="16.5">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1" ht="15">
+    <row r="212" spans="1:1" ht="16.5">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1" ht="15">
+    <row r="213" spans="1:1" ht="16.5">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1" ht="15">
+    <row r="214" spans="1:1" ht="16.5">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1" ht="15">
+    <row r="215" spans="1:1" ht="16.5">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1" ht="15">
+    <row r="216" spans="1:1" ht="16.5">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1" ht="15">
+    <row r="217" spans="1:1" ht="16.5">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1" ht="15">
+    <row r="218" spans="1:1" ht="16.5">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1" ht="15">
+    <row r="219" spans="1:1" ht="16.5">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1" ht="15">
+    <row r="220" spans="1:1" ht="16.5">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1" ht="15">
+    <row r="221" spans="1:1" ht="16.5">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1" ht="15">
+    <row r="222" spans="1:1" ht="16.5">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1" ht="15">
+    <row r="223" spans="1:1" ht="16.5">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1" ht="15">
+    <row r="224" spans="1:1" ht="16.5">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1" ht="15">
+    <row r="225" spans="1:1" ht="16.5">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1" ht="15">
+    <row r="226" spans="1:1" ht="16.5">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1" ht="15">
+    <row r="227" spans="1:1" ht="16.5">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1" ht="15">
+    <row r="228" spans="1:1" ht="16.5">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1" ht="15">
+    <row r="229" spans="1:1" ht="16.5">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1" ht="15">
+    <row r="230" spans="1:1" ht="16.5">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1" ht="15">
+    <row r="231" spans="1:1" ht="16.5">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1" ht="15">
+    <row r="232" spans="1:1" ht="16.5">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1" ht="15">
+    <row r="233" spans="1:1" ht="16.5">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1" ht="15">
+    <row r="234" spans="1:1" ht="16.5">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1" ht="15">
+    <row r="235" spans="1:1" ht="16.5">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1" ht="15">
+    <row r="236" spans="1:1" ht="16.5">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1" ht="15">
+    <row r="237" spans="1:1" ht="16.5">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1" ht="15">
+    <row r="238" spans="1:1" ht="16.5">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1" ht="15">
+    <row r="239" spans="1:1" ht="16.5">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1" ht="15">
+    <row r="240" spans="1:1" ht="16.5">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1" ht="15">
+    <row r="241" spans="1:1" ht="16.5">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1" ht="15">
+    <row r="242" spans="1:1" ht="16.5">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1" ht="15">
+    <row r="243" spans="1:1" ht="16.5">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1" ht="15">
+    <row r="244" spans="1:1" ht="16.5">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1" ht="15">
+    <row r="245" spans="1:1" ht="16.5">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1" ht="15">
+    <row r="246" spans="1:1" ht="16.5">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1" ht="15">
+    <row r="247" spans="1:1" ht="16.5">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1" ht="15">
+    <row r="248" spans="1:1" ht="16.5">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1" ht="15">
+    <row r="249" spans="1:1" ht="16.5">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1" ht="15">
+    <row r="250" spans="1:1" ht="16.5">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1" ht="15">
+    <row r="251" spans="1:1" ht="16.5">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1" ht="15">
+    <row r="252" spans="1:1" ht="16.5">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1" ht="15">
+    <row r="253" spans="1:1" ht="16.5">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1" ht="15">
+    <row r="254" spans="1:1" ht="16.5">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1" ht="15">
+    <row r="255" spans="1:1" ht="16.5">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1" ht="15">
+    <row r="256" spans="1:1" ht="16.5">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1" ht="15">
+    <row r="257" spans="1:1" ht="16.5">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1" ht="15">
+    <row r="258" spans="1:1" ht="16.5">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1" ht="15">
+    <row r="259" spans="1:1" ht="16.5">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1" ht="15">
+    <row r="260" spans="1:1" ht="16.5">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1" ht="15">
+    <row r="261" spans="1:1" ht="16.5">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1" ht="15">
+    <row r="262" spans="1:1" ht="16.5">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1" ht="15">
+    <row r="263" spans="1:1" ht="16.5">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1" ht="15">
+    <row r="264" spans="1:1" ht="16.5">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1" ht="15">
+    <row r="265" spans="1:1" ht="16.5">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1" ht="15">
+    <row r="266" spans="1:1" ht="16.5">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1" ht="15">
+    <row r="267" spans="1:1" ht="16.5">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1" ht="15">
+    <row r="268" spans="1:1" ht="16.5">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:1" ht="15">
+    <row r="269" spans="1:1" ht="16.5">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:1" ht="15">
+    <row r="270" spans="1:1" ht="16.5">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:1" ht="15">
+    <row r="271" spans="1:1" ht="16.5">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:1" ht="15">
+    <row r="272" spans="1:1" ht="16.5">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:1" ht="15">
+    <row r="273" spans="1:1" ht="16.5">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:1" ht="15">
+    <row r="274" spans="1:1" ht="16.5">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:1" ht="15">
+    <row r="275" spans="1:1" ht="16.5">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:1" ht="15">
+    <row r="276" spans="1:1" ht="16.5">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:1" ht="15">
+    <row r="277" spans="1:1" ht="16.5">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:1" ht="15">
+    <row r="278" spans="1:1" ht="16.5">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:1" ht="15">
+    <row r="279" spans="1:1" ht="16.5">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:1" ht="15">
+    <row r="280" spans="1:1" ht="16.5">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:1" ht="15">
+    <row r="281" spans="1:1" ht="16.5">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:1" ht="15">
+    <row r="282" spans="1:1" ht="16.5">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:1" ht="15">
+    <row r="283" spans="1:1" ht="16.5">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:1" ht="15">
+    <row r="284" spans="1:1" ht="16.5">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:1" ht="15">
+    <row r="285" spans="1:1" ht="16.5">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:1" ht="15">
+    <row r="286" spans="1:1" ht="16.5">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:1" ht="15">
+    <row r="287" spans="1:1" ht="16.5">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:1" ht="15">
+    <row r="288" spans="1:1" ht="16.5">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:1" ht="15">
+    <row r="289" spans="1:1" ht="16.5">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:1" ht="15">
+    <row r="290" spans="1:1" ht="16.5">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:1" ht="15">
+    <row r="291" spans="1:1" ht="16.5">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:1" ht="15">
+    <row r="292" spans="1:1" ht="16.5">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:1" ht="15">
+    <row r="293" spans="1:1" ht="16.5">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:1" ht="15">
+    <row r="294" spans="1:1" ht="16.5">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:1" ht="15">
+    <row r="295" spans="1:1" ht="16.5">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:1" ht="15">
+    <row r="296" spans="1:1" ht="16.5">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:1" ht="15">
+    <row r="297" spans="1:1" ht="16.5">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:1" ht="15">
+    <row r="298" spans="1:1" ht="16.5">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:1" ht="15">
+    <row r="299" spans="1:1" ht="16.5">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:1" ht="15">
+    <row r="300" spans="1:1" ht="16.5">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:1" ht="15">
+    <row r="301" spans="1:1" ht="16.5">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:1" ht="15">
+    <row r="302" spans="1:1" ht="16.5">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1" ht="15">
+    <row r="303" spans="1:1" ht="16.5">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:1" ht="15">
+    <row r="304" spans="1:1" ht="16.5">
       <c r="A304"/>
     </row>
-    <row r="305" spans="1:1" ht="15">
+    <row r="305" spans="1:1" ht="16.5">
       <c r="A305"/>
     </row>
-    <row r="306" spans="1:1" ht="15">
+    <row r="306" spans="1:1" ht="16.5">
       <c r="A306"/>
     </row>
-    <row r="307" spans="1:1" ht="15">
+    <row r="307" spans="1:1" ht="16.5">
       <c r="A307"/>
     </row>
-    <row r="308" spans="1:1" ht="15">
+    <row r="308" spans="1:1" ht="16.5">
       <c r="A308"/>
     </row>
-    <row r="309" spans="1:1" ht="15">
+    <row r="309" spans="1:1" ht="16.5">
       <c r="A309"/>
     </row>
-    <row r="310" spans="1:1" ht="15">
+    <row r="310" spans="1:1" ht="16.5">
       <c r="A310"/>
     </row>
-    <row r="311" spans="1:1" ht="15">
+    <row r="311" spans="1:1" ht="16.5">
       <c r="A311"/>
     </row>
-    <row r="312" spans="1:1" ht="15">
+    <row r="312" spans="1:1" ht="16.5">
       <c r="A312"/>
     </row>
-    <row r="313" spans="1:1" ht="15">
+    <row r="313" spans="1:1" ht="16.5">
       <c r="A313"/>
     </row>
-    <row r="314" spans="1:1" ht="15">
+    <row r="314" spans="1:1" ht="16.5">
       <c r="A314"/>
     </row>
-    <row r="315" spans="1:1" ht="15">
+    <row r="315" spans="1:1" ht="16.5">
       <c r="A315"/>
     </row>
-    <row r="316" spans="1:1" ht="15">
+    <row r="316" spans="1:1" ht="16.5">
       <c r="A316"/>
     </row>
-    <row r="317" spans="1:1" ht="15">
+    <row r="317" spans="1:1" ht="16.5">
       <c r="A317"/>
     </row>
-    <row r="318" spans="1:1" ht="15">
+    <row r="318" spans="1:1" ht="16.5">
       <c r="A318"/>
     </row>
-    <row r="319" spans="1:1" ht="15">
+    <row r="319" spans="1:1" ht="16.5">
       <c r="A319"/>
     </row>
-    <row r="320" spans="1:1" ht="15">
+    <row r="320" spans="1:1" ht="16.5">
       <c r="A320"/>
     </row>
-    <row r="321" spans="1:1" ht="15">
+    <row r="321" spans="1:1" ht="16.5">
       <c r="A321"/>
     </row>
-    <row r="322" spans="1:1" ht="15">
+    <row r="322" spans="1:1" ht="16.5">
       <c r="A322"/>
     </row>
-    <row r="323" spans="1:1" ht="15">
+    <row r="323" spans="1:1" ht="16.5">
       <c r="A323"/>
     </row>
-    <row r="324" spans="1:1" ht="15">
+    <row r="324" spans="1:1" ht="16.5">
       <c r="A324"/>
     </row>
-    <row r="325" spans="1:1" ht="15">
+    <row r="325" spans="1:1" ht="16.5">
       <c r="A325"/>
     </row>
-    <row r="326" spans="1:1" ht="15">
+    <row r="326" spans="1:1" ht="16.5">
       <c r="A326"/>
     </row>
-    <row r="327" spans="1:1" ht="15">
+    <row r="327" spans="1:1" ht="16.5">
       <c r="A327"/>
     </row>
-    <row r="328" spans="1:1" ht="15">
+    <row r="328" spans="1:1" ht="16.5">
       <c r="A328"/>
     </row>
-    <row r="329" spans="1:1" ht="15">
+    <row r="329" spans="1:1" ht="16.5">
       <c r="A329"/>
     </row>
-    <row r="330" spans="1:1" ht="15">
+    <row r="330" spans="1:1" ht="16.5">
       <c r="A330"/>
     </row>
-    <row r="331" spans="1:1" ht="15">
+    <row r="331" spans="1:1" ht="16.5">
       <c r="A331"/>
     </row>
-    <row r="332" spans="1:1" ht="15">
+    <row r="332" spans="1:1" ht="16.5">
       <c r="A332"/>
     </row>
-    <row r="333" spans="1:1" ht="15">
+    <row r="333" spans="1:1" ht="16.5">
       <c r="A333"/>
     </row>
-    <row r="334" spans="1:1" ht="15">
+    <row r="334" spans="1:1" ht="16.5">
       <c r="A334"/>
     </row>
-    <row r="335" spans="1:1" ht="15">
+    <row r="335" spans="1:1" ht="16.5">
       <c r="A335"/>
     </row>
-    <row r="336" spans="1:1" ht="15">
+    <row r="336" spans="1:1" ht="16.5">
       <c r="A336"/>
     </row>
-    <row r="337" spans="1:1" ht="15">
+    <row r="337" spans="1:1" ht="16.5">
       <c r="A337"/>
     </row>
-    <row r="338" spans="1:1" ht="15">
+    <row r="338" spans="1:1" ht="16.5">
       <c r="A338"/>
     </row>
-    <row r="339" spans="1:1" ht="15">
+    <row r="339" spans="1:1" ht="16.5">
       <c r="A339"/>
     </row>
-    <row r="340" spans="1:1" ht="15">
+    <row r="340" spans="1:1" ht="16.5">
       <c r="A340"/>
     </row>
-    <row r="341" spans="1:1" ht="15">
+    <row r="341" spans="1:1" ht="16.5">
       <c r="A341"/>
     </row>
-    <row r="342" spans="1:1" ht="15">
+    <row r="342" spans="1:1" ht="16.5">
       <c r="A342"/>
     </row>
-    <row r="343" spans="1:1" ht="15">
+    <row r="343" spans="1:1" ht="16.5">
       <c r="A343"/>
     </row>
-    <row r="344" spans="1:1" ht="15">
+    <row r="344" spans="1:1" ht="16.5">
       <c r="A344"/>
     </row>
-    <row r="345" spans="1:1" ht="15">
+    <row r="345" spans="1:1" ht="16.5">
       <c r="A345"/>
     </row>
-    <row r="346" spans="1:1" ht="15">
+    <row r="346" spans="1:1" ht="16.5">
       <c r="A346"/>
     </row>
-    <row r="347" spans="1:1" ht="15">
+    <row r="347" spans="1:1" ht="16.5">
       <c r="A347"/>
     </row>
-    <row r="348" spans="1:1" ht="15">
+    <row r="348" spans="1:1" ht="16.5">
       <c r="A348"/>
     </row>
-    <row r="349" spans="1:1" ht="15">
+    <row r="349" spans="1:1" ht="16.5">
       <c r="A349"/>
     </row>
-    <row r="350" spans="1:1" ht="15">
+    <row r="350" spans="1:1" ht="16.5">
       <c r="A350"/>
     </row>
-    <row r="351" spans="1:1" ht="15">
+    <row r="351" spans="1:1" ht="16.5">
       <c r="A351"/>
     </row>
-    <row r="352" spans="1:1" ht="15">
+    <row r="352" spans="1:1" ht="16.5">
       <c r="A352"/>
     </row>
-    <row r="353" spans="1:1" ht="15">
+    <row r="353" spans="1:1" ht="16.5">
       <c r="A353"/>
     </row>
-    <row r="354" spans="1:1" ht="15">
+    <row r="354" spans="1:1" ht="16.5">
       <c r="A354"/>
     </row>
-    <row r="355" spans="1:1" ht="15">
+    <row r="355" spans="1:1" ht="16.5">
       <c r="A355"/>
     </row>
-    <row r="356" spans="1:1" ht="15">
+    <row r="356" spans="1:1" ht="16.5">
       <c r="A356"/>
     </row>
-    <row r="357" spans="1:1" ht="15">
+    <row r="357" spans="1:1" ht="16.5">
       <c r="A357"/>
     </row>
-    <row r="358" spans="1:1" ht="15">
+    <row r="358" spans="1:1" ht="16.5">
       <c r="A358"/>
     </row>
-    <row r="359" spans="1:1" ht="15">
+    <row r="359" spans="1:1" ht="16.5">
       <c r="A359"/>
     </row>
-    <row r="360" spans="1:1" ht="15">
+    <row r="360" spans="1:1" ht="16.5">
       <c r="A360"/>
     </row>
-    <row r="361" spans="1:1" ht="15">
+    <row r="361" spans="1:1" ht="16.5">
       <c r="A361"/>
     </row>
-    <row r="362" spans="1:1" ht="15">
+    <row r="362" spans="1:1" ht="16.5">
       <c r="A362"/>
     </row>
-    <row r="363" spans="1:1" ht="15">
+    <row r="363" spans="1:1" ht="16.5">
       <c r="A363"/>
     </row>
-    <row r="364" spans="1:1" ht="15">
+    <row r="364" spans="1:1" ht="16.5">
       <c r="A364"/>
     </row>
-    <row r="365" spans="1:1" ht="15">
+    <row r="365" spans="1:1" ht="16.5">
       <c r="A365"/>
     </row>
   </sheetData>
@@ -11818,7 +12861,71 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{CE6B5745-A5FE-A442-85D0-AA2A8A1E79D1}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J34:O34</xm:f>
+              <xm:sqref>P34</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J28:O28</xm:f>
+              <xm:sqref>P28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11829,104 +12936,176 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B11:H11</xm:f>
-              <xm:sqref>I11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B17:H17</xm:f>
-              <xm:sqref>I17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B18:H18</xm:f>
-              <xm:sqref>I18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B19:H19</xm:f>
-              <xm:sqref>I19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B36:H36</xm:f>
-              <xm:sqref>I36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B40:H40</xm:f>
-              <xm:sqref>I40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B42:H42</xm:f>
-              <xm:sqref>I42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B35:H35</xm:f>
-              <xm:sqref>I35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B34:H34</xm:f>
-              <xm:sqref>I34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B45:H45</xm:f>
-              <xm:sqref>I45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B46:H46</xm:f>
-              <xm:sqref>I46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B47:H47</xm:f>
-              <xm:sqref>I47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B48:H48</xm:f>
-              <xm:sqref>I48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B49:H49</xm:f>
-              <xm:sqref>I49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B50:H50</xm:f>
-              <xm:sqref>I50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B6:H6</xm:f>
-              <xm:sqref>I6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J11:O11</xm:f>
+              <xm:sqref>P11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J12:O12</xm:f>
+              <xm:sqref>P12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J13:O13</xm:f>
+              <xm:sqref>P13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J15:O15</xm:f>
+              <xm:sqref>P15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J16:O16</xm:f>
+              <xm:sqref>P16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J17:O17</xm:f>
+              <xm:sqref>P17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J18:O18</xm:f>
+              <xm:sqref>P18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J19:O19</xm:f>
+              <xm:sqref>P19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J20:O20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J21:O21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J22:O22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J23:O23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J24:O24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J27:O27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J30:O30</xm:f>
+              <xm:sqref>P30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J31:O31</xm:f>
+              <xm:sqref>P31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J32:O32</xm:f>
+              <xm:sqref>P32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J33:O33</xm:f>
+              <xm:sqref>P33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J35:O35</xm:f>
+              <xm:sqref>P35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J36:O36</xm:f>
+              <xm:sqref>P36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J37:O37</xm:f>
+              <xm:sqref>P37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J38:O38</xm:f>
+              <xm:sqref>P38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J40:O40</xm:f>
+              <xm:sqref>P40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J41:O41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J42:O42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J10:O10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J8:O8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J7:O7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J6:O6</xm:f>
+              <xm:sqref>P6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" xr2:uid="{2A157620-F407-AB43-B024-75303B4CC502}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11942,7 +13121,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{90FC2399-7A4E-8F46-9CDE-F023DE7C4BF6}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11953,236 +13132,100 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J11:O11</xm:f>
-              <xm:sqref>P11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J12:O12</xm:f>
-              <xm:sqref>P12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J13:O13</xm:f>
-              <xm:sqref>P13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J15:O15</xm:f>
-              <xm:sqref>P15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J16:O16</xm:f>
-              <xm:sqref>P16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J17:O17</xm:f>
-              <xm:sqref>P17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J18:O18</xm:f>
-              <xm:sqref>P18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J19:O19</xm:f>
-              <xm:sqref>P19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J20:O20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J21:O21</xm:f>
-              <xm:sqref>P21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J22:O22</xm:f>
-              <xm:sqref>P22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J23:O23</xm:f>
-              <xm:sqref>P23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J24:O24</xm:f>
-              <xm:sqref>P24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J27:O27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J30:O30</xm:f>
-              <xm:sqref>P30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J31:O31</xm:f>
-              <xm:sqref>P31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J32:O32</xm:f>
-              <xm:sqref>P32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J33:O33</xm:f>
-              <xm:sqref>P33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J35:O35</xm:f>
-              <xm:sqref>P35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J36:O36</xm:f>
-              <xm:sqref>P36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J37:O37</xm:f>
-              <xm:sqref>P37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J38:O38</xm:f>
-              <xm:sqref>P38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J40:O40</xm:f>
-              <xm:sqref>P40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J41:O41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J42:O42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J43:O43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J45:O45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J10:O10</xm:f>
-              <xm:sqref>P10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J8:O8</xm:f>
-              <xm:sqref>P8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J7:O7</xm:f>
-              <xm:sqref>P7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J6:O6</xm:f>
-              <xm:sqref>P6</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{0C95DD10-2EF2-7F45-A0C6-D28053331855}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{089150B0-9436-E44A-BE52-1A519AF158A5}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J28:O28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{F148C69D-A499-D349-8A7D-B34241BBDE60}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{BE2FF15A-0493-1C4C-A139-76FE7DD0031C}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J34:O34</xm:f>
-              <xm:sqref>P34</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!B11:H11</xm:f>
+              <xm:sqref>I11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B17:H17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B18:H18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B19:H19</xm:f>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B36:H36</xm:f>
+              <xm:sqref>I36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B40:H40</xm:f>
+              <xm:sqref>I40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B42:H42</xm:f>
+              <xm:sqref>I42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B35:H35</xm:f>
+              <xm:sqref>I35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B34:H34</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B45:H45</xm:f>
+              <xm:sqref>I45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B46:H46</xm:f>
+              <xm:sqref>I46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B47:H47</xm:f>
+              <xm:sqref>I47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B48:H48</xm:f>
+              <xm:sqref>I48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B49:H49</xm:f>
+              <xm:sqref>I49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B50:H50</xm:f>
+              <xm:sqref>I50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B6:H6</xm:f>
+              <xm:sqref>I6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -12193,19 +13236,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B564618-3353-594F-9AC8-ADDD1D994103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1232"/>
   <sheetViews>
     <sheetView zoomScale="54" workbookViewId="0">
       <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="175" style="54" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1">
@@ -12256,7 +13299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="108" customFormat="1" ht="32">
+    <row r="2" spans="1:16" s="108" customFormat="1" ht="30">
       <c r="A2" s="104" t="s">
         <v>61</v>
       </c>
@@ -12318,7 +13361,7 @@
         <v>-7.8534031413612562E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="23">
+    <row r="4" spans="1:16" ht="23.25">
       <c r="A4" s="61" t="s">
         <v>90</v>
       </c>
@@ -12330,7 +13373,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
     </row>
-    <row r="5" spans="1:16" ht="23">
+    <row r="5" spans="1:16" ht="23.25">
       <c r="A5" s="17" t="s">
         <v>132</v>
       </c>
@@ -12356,7 +13399,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="23">
+    <row r="6" spans="1:16" ht="23.25">
       <c r="A6" s="17" t="s">
         <v>137</v>
       </c>
@@ -12382,7 +13425,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="23">
+    <row r="7" spans="1:16" ht="23.25">
       <c r="A7" s="60" t="s">
         <v>139</v>
       </c>
@@ -12408,7 +13451,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="23">
+    <row r="8" spans="1:16" ht="23.25">
       <c r="A8" s="60" t="s">
         <v>140</v>
       </c>
@@ -12434,7 +13477,7 @@
         <v>-482</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="23">
+    <row r="9" spans="1:16" ht="23.25">
       <c r="A9" s="60" t="s">
         <v>141</v>
       </c>
@@ -12460,7 +13503,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="25">
+    <row r="10" spans="1:16" ht="25.5">
       <c r="A10" s="60" t="s">
         <v>142</v>
       </c>
@@ -12486,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="23">
+    <row r="11" spans="1:16" ht="23.25">
       <c r="A11" s="60" t="s">
         <v>62</v>
       </c>
@@ -12512,7 +13555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="23">
+    <row r="12" spans="1:16" ht="23.25">
       <c r="A12" s="61" t="s">
         <v>63</v>
       </c>
@@ -12524,7 +13567,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:16" ht="23">
+    <row r="13" spans="1:16" ht="23.25">
       <c r="A13" s="60" t="s">
         <v>143</v>
       </c>
@@ -12574,7 +13617,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="25">
+    <row r="14" spans="1:16" ht="25.5">
       <c r="A14" s="60" t="s">
         <v>92</v>
       </c>
@@ -12600,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="23">
+    <row r="15" spans="1:16" ht="23.25">
       <c r="A15" s="60" t="s">
         <v>149</v>
       </c>
@@ -12626,7 +13669,7 @@
         <v>-1178</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="23">
+    <row r="16" spans="1:16" ht="23.25">
       <c r="A16" s="60" t="s">
         <v>146</v>
       </c>
@@ -12652,7 +13695,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="23">
+    <row r="17" spans="1:21" ht="23.25">
       <c r="A17" s="60" t="s">
         <v>110</v>
       </c>
@@ -12678,7 +13721,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="23">
+    <row r="18" spans="1:21" ht="23.25">
       <c r="A18" s="60" t="s">
         <v>147</v>
       </c>
@@ -12704,7 +13747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="23">
+    <row r="19" spans="1:21" ht="23.25">
       <c r="A19" s="60" t="s">
         <v>148</v>
       </c>
@@ -12730,7 +13773,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="43" customHeight="1">
+    <row r="20" spans="1:21" ht="42.95" customHeight="1">
       <c r="A20" s="62" t="s">
         <v>105</v>
       </c>
@@ -12787,7 +13830,7 @@
         <v>8.302015715749915E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="108" customFormat="1" ht="32">
+    <row r="21" spans="1:21" s="108" customFormat="1" ht="30">
       <c r="A21" s="104"/>
       <c r="B21" s="105"/>
       <c r="C21" s="106"/>
@@ -12797,7 +13840,7 @@
       <c r="G21" s="106"/>
       <c r="H21" s="106"/>
     </row>
-    <row r="22" spans="1:21" ht="23">
+    <row r="22" spans="1:21" ht="23.25">
       <c r="A22" s="60" t="s">
         <v>144</v>
       </c>
@@ -12823,7 +13866,7 @@
         <v>-908</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="23">
+    <row r="23" spans="1:21" ht="23.25">
       <c r="A23" s="60" t="s">
         <v>145</v>
       </c>
@@ -12849,7 +13892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="25">
+    <row r="24" spans="1:21" ht="25.5">
       <c r="A24" s="60" t="s">
         <v>91</v>
       </c>
@@ -12875,7 +13918,7 @@
         <v>-1594</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="23">
+    <row r="25" spans="1:21" ht="23.25">
       <c r="A25" s="60" t="s">
         <v>94</v>
       </c>
@@ -12922,7 +13965,7 @@
       </c>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:21" ht="23">
+    <row r="26" spans="1:21" ht="23.25">
       <c r="A26" s="60" t="s">
         <v>95</v>
       </c>
@@ -12974,7 +14017,7 @@
       <c r="T26" s="110"/>
       <c r="U26" s="110"/>
     </row>
-    <row r="27" spans="1:21" ht="23">
+    <row r="27" spans="1:21" ht="23.25">
       <c r="A27" s="60" t="s">
         <v>93</v>
       </c>
@@ -13000,7 +14043,7 @@
         <v>-2763</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="23">
+    <row r="28" spans="1:21" ht="23.25">
       <c r="A28" s="60" t="s">
         <v>107</v>
       </c>
@@ -13026,7 +14069,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="38" customHeight="1">
+    <row r="29" spans="1:21" ht="38.1" customHeight="1">
       <c r="A29" s="62" t="s">
         <v>104</v>
       </c>
@@ -13083,7 +14126,7 @@
         <v>0.65624614625724509</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" ht="28">
+    <row r="30" spans="1:21" s="1" customFormat="1" ht="27.75">
       <c r="A30" s="104" t="s">
         <v>96</v>
       </c>
@@ -13095,7 +14138,7 @@
       <c r="G30" s="66"/>
       <c r="H30" s="66"/>
     </row>
-    <row r="31" spans="1:21" ht="23">
+    <row r="31" spans="1:21" ht="23.25">
       <c r="A31" s="60" t="s">
         <v>98</v>
       </c>
@@ -13122,7 +14165,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:21" ht="23">
+    <row r="32" spans="1:21" ht="23.25">
       <c r="A32" s="60" t="s">
         <v>97</v>
       </c>
@@ -13149,7 +14192,7 @@
       </c>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:15" ht="23">
+    <row r="33" spans="1:15" ht="23.25">
       <c r="A33" s="60" t="s">
         <v>100</v>
       </c>
@@ -13176,7 +14219,7 @@
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="1:15" ht="23">
+    <row r="34" spans="1:15" ht="23.25">
       <c r="A34" s="60" t="s">
         <v>99</v>
       </c>
@@ -13204,7 +14247,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="27"/>
     </row>
-    <row r="35" spans="1:15" ht="25">
+    <row r="35" spans="1:15" ht="25.5">
       <c r="A35" s="60" t="s">
         <v>152</v>
       </c>
@@ -13231,7 +14274,7 @@
       </c>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:15" ht="23">
+    <row r="36" spans="1:15" ht="23.25">
       <c r="A36" s="60" t="s">
         <v>101</v>
       </c>
@@ -13258,7 +14301,7 @@
       </c>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="1:15" ht="23">
+    <row r="37" spans="1:15" ht="23.25">
       <c r="A37" s="60" t="s">
         <v>108</v>
       </c>
@@ -13286,7 +14329,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:15" ht="23">
+    <row r="38" spans="1:15" ht="23.25">
       <c r="A38" s="60" t="s">
         <v>106</v>
       </c>
@@ -13313,7 +14356,7 @@
       </c>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:15" ht="40" customHeight="1">
+    <row r="39" spans="1:15" ht="39.950000000000003" customHeight="1">
       <c r="A39" s="62" t="s">
         <v>102</v>
       </c>
@@ -13370,7 +14413,7 @@
         <v>-1.0611591418507844</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="23">
+    <row r="40" spans="1:15" ht="23.25">
       <c r="A40" s="60" t="s">
         <v>64</v>
       </c>
@@ -13397,7 +14440,7 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:15" ht="41" customHeight="1">
+    <row r="41" spans="1:15" ht="41.1" customHeight="1">
       <c r="A41" s="62" t="s">
         <v>234</v>
       </c>
@@ -13453,7 +14496,7 @@
         <v>-1.0047888550282977</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="23">
+    <row r="42" spans="1:15" ht="23.25">
       <c r="A42" s="60" t="s">
         <v>72</v>
       </c>
@@ -13480,7 +14523,7 @@
       </c>
       <c r="J42" s="27"/>
     </row>
-    <row r="43" spans="1:15" ht="40" customHeight="1">
+    <row r="43" spans="1:15" ht="39.950000000000003" customHeight="1">
       <c r="A43" s="62" t="s">
         <v>103</v>
       </c>
@@ -13537,7 +14580,7 @@
         <v>-6.0975609756097561E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" ht="23">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="23.25">
       <c r="A44" s="59" t="s">
         <v>65</v>
       </c>
@@ -13550,7 +14593,7 @@
       <c r="H44" s="66"/>
       <c r="K44" s="67"/>
     </row>
-    <row r="45" spans="1:15" ht="23">
+    <row r="45" spans="1:15" ht="23.25">
       <c r="A45" s="60" t="s">
         <v>66</v>
       </c>
@@ -13577,7 +14620,7 @@
       </c>
       <c r="K45" s="27"/>
     </row>
-    <row r="46" spans="1:15" ht="23">
+    <row r="46" spans="1:15" ht="23.25">
       <c r="A46" s="60" t="s">
         <v>67</v>
       </c>
@@ -13604,7 +14647,7 @@
       </c>
       <c r="K46" s="27"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" ht="25">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="25.5">
       <c r="A47" s="63" t="s">
         <v>73</v>
       </c>
@@ -13617,7 +14660,7 @@
       <c r="H47" s="66"/>
       <c r="K47" s="67"/>
     </row>
-    <row r="48" spans="1:15" ht="23">
+    <row r="48" spans="1:15" ht="23.25">
       <c r="A48" s="60" t="s">
         <v>68</v>
       </c>
@@ -13644,7 +14687,7 @@
       </c>
       <c r="K48" s="27"/>
     </row>
-    <row r="49" spans="1:15" ht="23">
+    <row r="49" spans="1:15" ht="23.25">
       <c r="A49" s="60" t="s">
         <v>69</v>
       </c>
@@ -13671,7 +14714,7 @@
       </c>
       <c r="K49" s="27"/>
     </row>
-    <row r="50" spans="1:15" ht="23">
+    <row r="50" spans="1:15" ht="23.25">
       <c r="A50" s="60" t="s">
         <v>70</v>
       </c>
@@ -13698,7 +14741,7 @@
       </c>
       <c r="K50" s="27"/>
     </row>
-    <row r="51" spans="1:15" ht="35" customHeight="1">
+    <row r="51" spans="1:15" ht="35.1" customHeight="1">
       <c r="A51" s="62" t="s">
         <v>71</v>
       </c>
@@ -14992,7 +16035,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1" xr2:uid="{2530F761-84B3-884D-89B7-D1CCFE00553F}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15003,52 +16046,152 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
+              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" xr2:uid="{7BE89187-A676-BF43-8E7A-F80FA905AE8B}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF92D050"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J20:O20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J19:O19</xm:f>
+              <xm:sqref>P19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J18:O18</xm:f>
+              <xm:sqref>P18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J17:O17</xm:f>
+              <xm:sqref>P17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J16:O16</xm:f>
+              <xm:sqref>P16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J15:O15</xm:f>
+              <xm:sqref>P15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J13:O13</xm:f>
+              <xm:sqref>P13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J12:O12</xm:f>
+              <xm:sqref>P12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J11:O11</xm:f>
+              <xm:sqref>P11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J10:O10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J8:O8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J7:O7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J6:O6</xm:f>
+              <xm:sqref>P6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J5:O5</xm:f>
+              <xm:sqref>P5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J4:O4</xm:f>
+              <xm:sqref>P4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J3:O3</xm:f>
+              <xm:sqref>P3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15059,12 +16202,28 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
+              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
+              <xm:sqref>P28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" xr2:uid="{013473FA-0D2C-574E-9217-B8A07FB25C73}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15075,112 +16234,12 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
+              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1" xr2:uid="{0F2A6C1C-E04E-BB48-AED4-519666AA2B80}">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF92D050"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J20:O20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J19:O19</xm:f>
-              <xm:sqref>P19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J18:O18</xm:f>
-              <xm:sqref>P18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J17:O17</xm:f>
-              <xm:sqref>P17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J16:O16</xm:f>
-              <xm:sqref>P16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J15:O15</xm:f>
-              <xm:sqref>P15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J13:O13</xm:f>
-              <xm:sqref>P13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J12:O12</xm:f>
-              <xm:sqref>P12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J11:O11</xm:f>
-              <xm:sqref>P11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J10:O10</xm:f>
-              <xm:sqref>P10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J8:O8</xm:f>
-              <xm:sqref>P8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J7:O7</xm:f>
-              <xm:sqref>P7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J6:O6</xm:f>
-              <xm:sqref>P6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J5:O5</xm:f>
-              <xm:sqref>P5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J4:O4</xm:f>
-              <xm:sqref>P4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J3:O3</xm:f>
-              <xm:sqref>P3</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1" xr2:uid="{633AFF98-306B-3A41-94E9-0B44D7544490}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15191,64 +16250,48 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
-              <xm:sqref>I25</xm:sqref>
+              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -15259,21 +16302,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417D8A4F-E765-6F43-BE23-33AC0942794C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="132"/>
-    <col min="2" max="2" width="153.6640625" style="132" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.875" style="132"/>
+    <col min="2" max="2" width="153.625" style="132" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="13"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="27.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -15328,23 +16371,23 @@
       <c r="B7" s="133"/>
       <c r="C7" s="76"/>
     </row>
-    <row r="8" spans="1:13" ht="27">
+    <row r="8" spans="1:13" ht="27.75">
       <c r="A8" s="128">
         <v>6</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="76"/>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="166" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="128">
@@ -15352,15 +16395,15 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="76"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="128">
@@ -15368,15 +16411,15 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="76"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="128">
@@ -15384,15 +16427,15 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="76"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="128">
@@ -15400,15 +16443,15 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="76"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="167"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="128">
@@ -15416,30 +16459,30 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="76"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="167"/>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="154">
         <f>SUM(C3:C13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="167"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="131" t="s">
@@ -15447,15 +16490,15 @@
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="76"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="167"/>
+      <c r="M15" s="167"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="129">
@@ -15463,15 +16506,15 @@
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="76"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="129">
@@ -15479,15 +16522,15 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="76"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
+      <c r="L17" s="167"/>
+      <c r="M17" s="167"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="129">
@@ -15495,15 +16538,15 @@
       </c>
       <c r="B18" s="133"/>
       <c r="C18" s="76"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="129">
@@ -15511,15 +16554,15 @@
       </c>
       <c r="B19" s="133"/>
       <c r="C19" s="76"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="167"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="129">
@@ -15584,5 +16627,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SQ財報.xlsx
+++ b/SQ財報.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="6090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTE" sheetId="8" r:id="rId1"/>
@@ -2746,6 +2746,27 @@
     <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="41" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2760,27 +2781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4326,15 +4326,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>734786</xdr:colOff>
+      <xdr:colOff>884466</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>54400</xdr:rowOff>
+      <xdr:rowOff>122394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
+      <xdr:colOff>1687286</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>186013</xdr:rowOff>
+      <xdr:rowOff>163257</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4349,10 +4349,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8776607" y="7225364"/>
-          <a:ext cx="5306787" cy="430970"/>
-          <a:chOff x="5844899" y="12880661"/>
-          <a:chExt cx="2935965" cy="371303"/>
+          <a:off x="8926287" y="7293358"/>
+          <a:ext cx="6817178" cy="340220"/>
+          <a:chOff x="5995463" y="12880661"/>
+          <a:chExt cx="3771585" cy="293118"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -4370,8 +4370,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="5844899" y="13066313"/>
-            <a:ext cx="888317" cy="95719"/>
+            <a:off x="5995463" y="13027220"/>
+            <a:ext cx="737753" cy="76229"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -4411,7 +4411,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6733216" y="12880661"/>
-            <a:ext cx="2047648" cy="371303"/>
+            <a:ext cx="3033832" cy="293118"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4443,11 +4443,54 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DoorDash</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>的價值重估 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2.76</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>億美金</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 才造成淨收入成長</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4777,21 +4820,21 @@
         <v>239</v>
       </c>
       <c r="C2" s="136"/>
-      <c r="G2" s="163" t="s">
+      <c r="G2" s="170" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
       <c r="K2" s="13"/>
       <c r="L2" s="147"/>
       <c r="M2" s="147"/>
     </row>
     <row r="3" spans="1:16" ht="19.5">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="122">
         <v>2016</v>
       </c>
@@ -4830,10 +4873,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="19">
         <v>197</v>
       </c>
@@ -4875,43 +4918,43 @@
       <c r="P4" s="115"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="170" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="19.5">
-      <c r="A8" s="163"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
       <c r="E8" s="122">
         <v>2016</v>
       </c>
@@ -4950,10 +4993,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="18">
-      <c r="A9" s="163"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
       <c r="E9" s="19">
         <v>6129</v>
       </c>
@@ -4995,43 +5038,43 @@
       <c r="P9" s="115"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="163"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="163"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="163"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="170" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="19.5">
-      <c r="A13" s="163"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
       <c r="E13" s="122">
         <v>2016</v>
       </c>
@@ -5070,10 +5113,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18">
-      <c r="A14" s="163"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
       <c r="E14" s="19">
         <v>354014</v>
       </c>
@@ -6105,8 +6148,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
+              <xm:f>NOTE!K9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6137,8 +6180,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>NOTE!K9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
+              <xm:f>NOTE!K14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8482,87 +8525,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF92D050"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>sample!B2:H2</xm:f>
-              <xm:sqref>I2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B15:H15</xm:f>
-              <xm:sqref>I15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B17:H17</xm:f>
-              <xm:sqref>I17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B18:H18</xm:f>
-              <xm:sqref>I18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B19:H19</xm:f>
-              <xm:sqref>I19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B22:H22</xm:f>
-              <xm:sqref>I22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B23:H23</xm:f>
-              <xm:sqref>I23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B24:H24</xm:f>
-              <xm:sqref>I24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B25:H25</xm:f>
-              <xm:sqref>I25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B40:H40</xm:f>
-              <xm:sqref>I40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B14:H14</xm:f>
-              <xm:sqref>I14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>sample!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
+              <xm:f>sample!J12:O12</xm:f>
+              <xm:sqref>P12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8686,19 +8661,87 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF92D050"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>sample!J12:O12</xm:f>
-              <xm:sqref>P12</xm:sqref>
+              <xm:f>sample!B2:H2</xm:f>
+              <xm:sqref>I2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B15:H15</xm:f>
+              <xm:sqref>I15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B17:H17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B18:H18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B19:H19</xm:f>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B22:H22</xm:f>
+              <xm:sqref>I22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B23:H23</xm:f>
+              <xm:sqref>I23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B24:H24</xm:f>
+              <xm:sqref>I24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B40:H40</xm:f>
+              <xm:sqref>I40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B14:H14</xm:f>
+              <xm:sqref>I14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>sample!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8712,8 +8755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -8750,7 +8793,7 @@
       <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="168" t="s">
+      <c r="I1" s="163" t="s">
         <v>74</v>
       </c>
       <c r="Q1" s="31"/>
@@ -9008,7 +9051,7 @@
         <v>2823815</v>
       </c>
       <c r="C13" s="26">
-        <f t="shared" ref="C13:D13" si="2">SUM(C9:C12)</f>
+        <f t="shared" ref="C13" si="2">SUM(C9:C12)</f>
         <v>6764169</v>
       </c>
       <c r="D13" s="26">
@@ -9183,11 +9226,11 @@
         <f t="shared" si="9"/>
         <v>161112</v>
       </c>
-      <c r="F22" s="172">
+      <c r="F22" s="167">
         <f t="shared" si="7"/>
         <v>-1.7084761079941257</v>
       </c>
-      <c r="G22" s="172">
+      <c r="G22" s="167">
         <f>(D22-C22)/ABS(C22)</f>
         <v>9.5629550890247135</v>
       </c>
@@ -9208,8 +9251,8 @@
       <c r="D23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
     </row>
     <row r="24" spans="1:9" ht="23.25">
       <c r="A24" s="17" t="s">
@@ -9224,8 +9267,8 @@
       <c r="D24" s="19">
         <v>-33124</v>
       </c>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
     </row>
     <row r="25" spans="1:9" ht="25.5">
       <c r="A25" s="17" t="s">
@@ -9240,8 +9283,8 @@
       <c r="D25" s="19">
         <v>29474</v>
       </c>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
     </row>
     <row r="26" spans="1:9" ht="23.25">
       <c r="A26" s="156" t="s">
@@ -9259,11 +9302,11 @@
         <f t="shared" si="10"/>
         <v>157462</v>
       </c>
-      <c r="F26" s="172">
+      <c r="F26" s="167">
         <f t="shared" si="7"/>
         <v>-0.42898049511783043</v>
       </c>
-      <c r="G26" s="172">
+      <c r="G26" s="167">
         <f t="shared" si="8"/>
         <v>-0.27089786865585946</v>
       </c>
@@ -9281,8 +9324,8 @@
       <c r="D27" s="19">
         <v>1364</v>
       </c>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
     </row>
     <row r="28" spans="1:9" ht="22.5" customHeight="1">
       <c r="A28" s="156" t="s">
@@ -9293,18 +9336,18 @@
         <v>375446</v>
       </c>
       <c r="C28" s="26">
-        <f t="shared" ref="C28:D28" si="11">SUM(C26:C27)</f>
+        <f t="shared" ref="C28" si="11">SUM(C26:C27)</f>
         <v>213105</v>
       </c>
       <c r="D28" s="26">
         <f>SUM(D26:D27)</f>
         <v>158826</v>
       </c>
-      <c r="F28" s="172">
+      <c r="F28" s="167">
         <f t="shared" si="7"/>
         <v>-0.43239507146167494</v>
       </c>
-      <c r="G28" s="172">
+      <c r="G28" s="167">
         <f t="shared" si="8"/>
         <v>-0.2547054269022313</v>
       </c>
@@ -9325,8 +9368,8 @@
       <c r="D29" s="19">
         <v>-7458</v>
       </c>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
     </row>
     <row r="30" spans="1:9" ht="23.25">
       <c r="A30" s="17" t="s">
@@ -9341,16 +9384,16 @@
       <c r="D30" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
     </row>
     <row r="31" spans="1:9" ht="23.25">
       <c r="A31" s="17"/>
       <c r="B31" s="160"/>
       <c r="C31" s="160"/>
       <c r="D31" s="161"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" ht="23.25">
       <c r="A32" s="157" t="s">
@@ -9359,8 +9402,8 @@
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="159"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:7" ht="23.25">
@@ -9376,11 +9419,11 @@
       <c r="D33" s="162">
         <v>0.36</v>
       </c>
-      <c r="F33" s="172">
+      <c r="F33" s="167">
         <f t="shared" ref="F33:F34" si="12">(C33-B33)/B33</f>
         <v>-0.45454545454545459</v>
       </c>
-      <c r="G33" s="172">
+      <c r="G33" s="167">
         <f t="shared" ref="G33:G34" si="13">(D33-C33)/C33</f>
         <v>-0.25</v>
       </c>
@@ -9398,11 +9441,11 @@
       <c r="D34" s="162">
         <v>0.33</v>
       </c>
-      <c r="F34" s="172">
+      <c r="F34" s="167">
         <f t="shared" si="12"/>
         <v>-0.45679012345679015</v>
       </c>
-      <c r="G34" s="172">
+      <c r="G34" s="167">
         <f t="shared" si="13"/>
         <v>-0.24999999999999997</v>
       </c>
@@ -9414,8 +9457,8 @@
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
     </row>
     <row r="36" spans="1:7" ht="23.25">
       <c r="A36" s="17" t="s">
@@ -9430,8 +9473,8 @@
       <c r="D36" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
     </row>
     <row r="37" spans="1:7" ht="23.25">
       <c r="A37" s="17" t="s">
@@ -9446,8 +9489,8 @@
       <c r="D37" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
     </row>
     <row r="38" spans="1:7" ht="25.5">
       <c r="A38" s="89" t="s">
@@ -9456,86 +9499,86 @@
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
     </row>
     <row r="39" spans="1:7" ht="25.5">
       <c r="A39" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="174">
+      <c r="B39" s="169">
         <f>B22/B7</f>
         <v>5.6342420706481386E-3</v>
       </c>
-      <c r="C39" s="174">
+      <c r="C39" s="169">
         <f t="shared" ref="C39:D39" si="14">C22/C7</f>
         <v>-1.9810313745251685E-3</v>
       </c>
-      <c r="D39" s="174">
+      <c r="D39" s="169">
         <f t="shared" si="14"/>
         <v>9.1223683913264578E-3</v>
       </c>
-      <c r="F39" s="172">
+      <c r="F39" s="167">
         <f>(C39-B39)/ABS(B39)</f>
         <v>-1.3516056551502196</v>
       </c>
-      <c r="G39" s="172">
+      <c r="G39" s="167">
         <f>(D39-C39)/ABS(C39)</f>
         <v>5.6048581100907553</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.5">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="174">
+      <c r="B40" s="169">
         <f>B26/B7</f>
         <v>8.0240373395565931E-2</v>
       </c>
-      <c r="C40" s="174">
+      <c r="C40" s="169">
         <f t="shared" ref="C40:D40" si="15">C26/C7</f>
         <v>2.2739165711510873E-2</v>
       </c>
-      <c r="D40" s="174">
+      <c r="D40" s="169">
         <f t="shared" si="15"/>
         <v>8.9157007028343432E-3</v>
       </c>
-      <c r="F40" s="172">
-        <f t="shared" ref="F35:F41" si="16">(C40-B40)/B40</f>
+      <c r="F40" s="167">
+        <f t="shared" ref="F40:F41" si="16">(C40-B40)/B40</f>
         <v>-0.71661191555761838</v>
       </c>
-      <c r="G40" s="172">
-        <f t="shared" ref="G35:G41" si="17">(D40-C40)/C40</f>
+      <c r="G40" s="167">
+        <f t="shared" ref="G40:G41" si="17">(D40-C40)/C40</f>
         <v>-0.60791434409042122</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="174">
+      <c r="B41" s="169">
         <f>B28/B7</f>
         <v>7.9653336162087626E-2</v>
       </c>
-      <c r="C41" s="174">
+      <c r="C41" s="169">
         <f t="shared" ref="C41:D41" si="18">C28/C7</f>
         <v>2.2437825727780282E-2</v>
       </c>
-      <c r="D41" s="174">
+      <c r="D41" s="169">
         <f t="shared" si="18"/>
         <v>8.9929321349174231E-3</v>
       </c>
-      <c r="F41" s="172">
+      <c r="F41" s="167">
         <f t="shared" si="16"/>
         <v>-0.71830651660187528</v>
       </c>
-      <c r="G41" s="172">
+      <c r="G41" s="167">
         <f t="shared" si="17"/>
         <v>-0.5992066145792696</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5">
-      <c r="A42" s="170" t="s">
+      <c r="A42" s="165" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="26"/>
@@ -9543,7 +9586,7 @@
       <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:7" ht="25.5">
-      <c r="A43" s="170" t="s">
+      <c r="A43" s="165" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="26"/>
@@ -9551,7 +9594,7 @@
       <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:7" ht="23.25">
-      <c r="A44" s="169"/>
+      <c r="A44" s="164"/>
       <c r="B44" s="141"/>
       <c r="C44" s="141"/>
       <c r="D44" s="141"/>
@@ -9604,8 +9647,68 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B41:D41</xm:f>
-              <xm:sqref>E41</xm:sqref>
+              <xm:f>INCOME成長性!B7:D7</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B8:D8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B13:D13</xm:f>
+              <xm:sqref>E13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B14:D14</xm:f>
+              <xm:sqref>E14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B15:D15</xm:f>
+              <xm:sqref>E15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B21:D21</xm:f>
+              <xm:sqref>E21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B22:D22</xm:f>
+              <xm:sqref>E22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B26:D26</xm:f>
+              <xm:sqref>E26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B28:D28</xm:f>
+              <xm:sqref>E28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B31:D31</xm:f>
+              <xm:sqref>E31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B32:D32</xm:f>
+              <xm:sqref>E32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B33:D33</xm:f>
+              <xm:sqref>E33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B34:D34</xm:f>
+              <xm:sqref>E34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B35:D35</xm:f>
+              <xm:sqref>E35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B38:D38</xm:f>
+              <xm:sqref>E38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!B12:D12</xm:f>
+              <xm:sqref>E12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9620,8 +9723,276 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!B40:D40</xm:f>
-              <xm:sqref>E40</xm:sqref>
+              <xm:f>INCOME成長性!F7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F38:G38</xm:f>
+              <xm:sqref>H38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F39:G39</xm:f>
+              <xm:sqref>H39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F40:G40</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>INCOME成長性!F41:G41</xm:f>
+              <xm:sqref>H41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9642,7 +10013,7 @@
           </x14:sparklines>
         </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FF0070C0"/>
@@ -9652,212 +10023,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F38:G38</xm:f>
-              <xm:sqref>H38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F39:G39</xm:f>
-              <xm:sqref>H39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F40:G40</xm:f>
-              <xm:sqref>H40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F41:G41</xm:f>
-              <xm:sqref>H41</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FFFF0000"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
+              <xm:f>INCOME成長性!B40:D40</xm:f>
+              <xm:sqref>E40</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9872,132 +10039,8 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>INCOME成長性!F7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!F21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B7:D7</xm:f>
-              <xm:sqref>E7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B8:D8</xm:f>
-              <xm:sqref>E8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B13:D13</xm:f>
-              <xm:sqref>E13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B14:D14</xm:f>
-              <xm:sqref>E14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B15:D15</xm:f>
-              <xm:sqref>E15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B21:D21</xm:f>
-              <xm:sqref>E21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B22:D22</xm:f>
-              <xm:sqref>E22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B26:D26</xm:f>
-              <xm:sqref>E26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B28:D28</xm:f>
-              <xm:sqref>E28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B31:D31</xm:f>
-              <xm:sqref>E31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B32:D32</xm:f>
-              <xm:sqref>E32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B33:D33</xm:f>
-              <xm:sqref>E33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B34:D34</xm:f>
-              <xm:sqref>E34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B35:D35</xm:f>
-              <xm:sqref>E35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B38:D38</xm:f>
-              <xm:sqref>E38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>INCOME成長性!B12:D12</xm:f>
-              <xm:sqref>E12</xm:sqref>
+              <xm:f>INCOME成長性!B41:D41</xm:f>
+              <xm:sqref>E41</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -12861,6 +12904,130 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B11:H11</xm:f>
+              <xm:sqref>I11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B17:H17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B18:H18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B19:H19</xm:f>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B36:H36</xm:f>
+              <xm:sqref>I36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B40:H40</xm:f>
+              <xm:sqref>I40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B42:H42</xm:f>
+              <xm:sqref>I42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B35:H35</xm:f>
+              <xm:sqref>I35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B34:H34</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B45:H45</xm:f>
+              <xm:sqref>I45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B46:H46</xm:f>
+              <xm:sqref>I46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B47:H47</xm:f>
+              <xm:sqref>I47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B48:H48</xm:f>
+              <xm:sqref>I48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B49:H49</xm:f>
+              <xm:sqref>I49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B50:H50</xm:f>
+              <xm:sqref>I50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B6:H6</xm:f>
+              <xm:sqref>I6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!F28:H28</xm:f>
+              <xm:sqref>I28</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
@@ -12868,12 +13035,176 @@
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FF00B050"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J34:O34</xm:f>
-              <xm:sqref>P34</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J11:O11</xm:f>
+              <xm:sqref>P11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J12:O12</xm:f>
+              <xm:sqref>P12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J13:O13</xm:f>
+              <xm:sqref>P13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J14:O14</xm:f>
+              <xm:sqref>P14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J15:O15</xm:f>
+              <xm:sqref>P15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J16:O16</xm:f>
+              <xm:sqref>P16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J17:O17</xm:f>
+              <xm:sqref>P17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J18:O18</xm:f>
+              <xm:sqref>P18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J19:O19</xm:f>
+              <xm:sqref>P19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J20:O20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J21:O21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J22:O22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J23:O23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J24:O24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J27:O27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J30:O30</xm:f>
+              <xm:sqref>P30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J31:O31</xm:f>
+              <xm:sqref>P31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J32:O32</xm:f>
+              <xm:sqref>P32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J33:O33</xm:f>
+              <xm:sqref>P33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J35:O35</xm:f>
+              <xm:sqref>P35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J36:O36</xm:f>
+              <xm:sqref>P36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J37:O37</xm:f>
+              <xm:sqref>P37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J38:O38</xm:f>
+              <xm:sqref>P38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J40:O40</xm:f>
+              <xm:sqref>P40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J41:O41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J42:O42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J10:O10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J9:O9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J8:O8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J7:O7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'BALANCE SHEET穩定性'!J6:O6</xm:f>
+              <xm:sqref>P6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -12888,8 +13219,8 @@
           <x14:colorLow rgb="FF00B050"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -12920,8 +13251,8 @@
           <x14:colorLow rgb="FF00B050"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -12932,300 +13263,12 @@
           <x14:colorMarkers rgb="FF0070C0"/>
           <x14:colorFirst rgb="FFFFC000"/>
           <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FF00B050"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J11:O11</xm:f>
-              <xm:sqref>P11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J12:O12</xm:f>
-              <xm:sqref>P12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J13:O13</xm:f>
-              <xm:sqref>P13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J14:O14</xm:f>
-              <xm:sqref>P14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J15:O15</xm:f>
-              <xm:sqref>P15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J16:O16</xm:f>
-              <xm:sqref>P16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J17:O17</xm:f>
-              <xm:sqref>P17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J18:O18</xm:f>
-              <xm:sqref>P18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J19:O19</xm:f>
-              <xm:sqref>P19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J20:O20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J21:O21</xm:f>
-              <xm:sqref>P21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J22:O22</xm:f>
-              <xm:sqref>P22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J23:O23</xm:f>
-              <xm:sqref>P23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J24:O24</xm:f>
-              <xm:sqref>P24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J27:O27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J30:O30</xm:f>
-              <xm:sqref>P30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J31:O31</xm:f>
-              <xm:sqref>P31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J32:O32</xm:f>
-              <xm:sqref>P32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J33:O33</xm:f>
-              <xm:sqref>P33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J35:O35</xm:f>
-              <xm:sqref>P35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J36:O36</xm:f>
-              <xm:sqref>P36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J37:O37</xm:f>
-              <xm:sqref>P37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J38:O38</xm:f>
-              <xm:sqref>P38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J40:O40</xm:f>
-              <xm:sqref>P40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J41:O41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J42:O42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J43:O43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J45:O45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J10:O10</xm:f>
-              <xm:sqref>P10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J9:O9</xm:f>
-              <xm:sqref>P9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J8:O8</xm:f>
-              <xm:sqref>P8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J7:O7</xm:f>
-              <xm:sqref>P7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!J6:O6</xm:f>
-              <xm:sqref>P6</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!F28:H28</xm:f>
-              <xm:sqref>I28</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B11:H11</xm:f>
-              <xm:sqref>I11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B17:H17</xm:f>
-              <xm:sqref>I17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B18:H18</xm:f>
-              <xm:sqref>I18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B19:H19</xm:f>
-              <xm:sqref>I19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B36:H36</xm:f>
-              <xm:sqref>I36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B40:H40</xm:f>
-              <xm:sqref>I40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B42:H42</xm:f>
-              <xm:sqref>I42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B35:H35</xm:f>
-              <xm:sqref>I35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B34:H34</xm:f>
-              <xm:sqref>I34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B45:H45</xm:f>
-              <xm:sqref>I45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B46:H46</xm:f>
-              <xm:sqref>I46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B47:H47</xm:f>
-              <xm:sqref>I47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B48:H48</xm:f>
-              <xm:sqref>I48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B49:H49</xm:f>
-              <xm:sqref>I49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B50:H50</xm:f>
-              <xm:sqref>I50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B6:H6</xm:f>
-              <xm:sqref>I6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'BALANCE SHEET穩定性'!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
+              <xm:f>'BALANCE SHEET穩定性'!J34:O34</xm:f>
+              <xm:sqref>P34</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16046,64 +16089,96 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
-              <xm:sqref>I20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
-              <xm:sqref>I21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
-              <xm:sqref>I29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
-              <xm:sqref>I30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
-              <xm:sqref>I3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
-              <xm:sqref>I4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
-              <xm:sqref>I12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
-              <xm:sqref>I13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
-              <xm:sqref>I26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
-              <xm:sqref>I25</xm:sqref>
+              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
+              <xm:sqref>P51</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
+              <xm:sqref>P39</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FFFF0000"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
+              <xm:sqref>P28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
+              <xm:sqref>P26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
+              <xm:sqref>P25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16191,54 +16266,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J29:O29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J28:O28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J27:O27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J26:O26</xm:f>
-              <xm:sqref>P26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J25:O25</xm:f>
-              <xm:sqref>P25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" high="1">
-          <x14:colorSeries rgb="FF00B050"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FFFF0000"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J39:O39</xm:f>
-              <xm:sqref>P39</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" markers="1" low="1">
           <x14:colorSeries rgb="FF00B050"/>
           <x14:colorNegative rgb="FFFF0000"/>
@@ -16250,48 +16277,64 @@
           <x14:colorLow rgb="FFFF0000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J41:O41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J42:O42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J43:O43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J44:O44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J45:O45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J46:O46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J47:O47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J48:O48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J49:O49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J50:O50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'CASH FLOWS'!J51:O51</xm:f>
-              <xm:sqref>P51</xm:sqref>
+              <xm:f>'CASH FLOWS'!B20:H20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B21:H21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B29:H29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B30:H30</xm:f>
+              <xm:sqref>I30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B3:H3</xm:f>
+              <xm:sqref>I3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B4:H4</xm:f>
+              <xm:sqref>I4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B12:H12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B13:H13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B26:H26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'CASH FLOWS'!B25:H25</xm:f>
+              <xm:sqref>I25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16377,17 +16420,17 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="76"/>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="173" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="128">
@@ -16395,15 +16438,15 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="76"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="128">
@@ -16411,15 +16454,15 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="76"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="128">
@@ -16427,15 +16470,15 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="76"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="128">
@@ -16443,15 +16486,15 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="76"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="128">
@@ -16459,30 +16502,30 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="76"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="154">
         <f>SUM(C3:C13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="131" t="s">
@@ -16490,15 +16533,15 @@
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="76"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="167"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="129">
@@ -16506,15 +16549,15 @@
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="76"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="129">
@@ -16522,15 +16565,15 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="76"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="167"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="174"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="129">
@@ -16538,15 +16581,15 @@
       </c>
       <c r="B18" s="133"/>
       <c r="C18" s="76"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="129">
@@ -16554,15 +16597,15 @@
       </c>
       <c r="B19" s="133"/>
       <c r="C19" s="76"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="129">
